--- a/BackTest/2019-10-14 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-14 BackTest ZRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>16</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>60</v>
+      </c>
       <c r="L12" t="n">
         <v>362.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>17</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>362.9</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>17</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L14" t="n">
         <v>363.3</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>18</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
       <c r="L15" t="n">
         <v>363.7</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>20</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L16" t="n">
         <v>363.7</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>24</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>28.57142857142857</v>
+      </c>
       <c r="L17" t="n">
         <v>364.2</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>26</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
       <c r="L18" t="n">
         <v>364.4</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>28</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L19" t="n">
         <v>364.9</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>28</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>23.07692307692308</v>
+      </c>
       <c r="L20" t="n">
         <v>365.1</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>28</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L21" t="n">
         <v>365.4</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>30</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="L22" t="n">
         <v>365.4</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>30</v>
       </c>
       <c r="K23" t="n">
-        <v>31.03448275862069</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L23" t="n">
         <v>365.5</v>
@@ -1466,7 +1488,7 @@
         <v>31</v>
       </c>
       <c r="K24" t="n">
-        <v>15.38461538461539</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L24" t="n">
         <v>365.5</v>
@@ -1515,7 +1537,7 @@
         <v>37</v>
       </c>
       <c r="K25" t="n">
-        <v>-9.67741935483871</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L25" t="n">
         <v>364.8</v>
@@ -1564,7 +1586,7 @@
         <v>37</v>
       </c>
       <c r="K26" t="n">
-        <v>-17.24137931034483</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L26" t="n">
         <v>364.3</v>
@@ -1613,7 +1635,7 @@
         <v>38</v>
       </c>
       <c r="K27" t="n">
-        <v>-17.24137931034483</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L27" t="n">
         <v>363.3</v>
@@ -1662,7 +1684,7 @@
         <v>38</v>
       </c>
       <c r="K28" t="n">
-        <v>-21.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L28" t="n">
         <v>362.5</v>
@@ -1711,7 +1733,7 @@
         <v>38</v>
       </c>
       <c r="K29" t="n">
-        <v>-18.51851851851852</v>
+        <v>-100</v>
       </c>
       <c r="L29" t="n">
         <v>361.5</v>
@@ -1760,7 +1782,7 @@
         <v>38</v>
       </c>
       <c r="K30" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L30" t="n">
         <v>360.5</v>
@@ -1809,7 +1831,7 @@
         <v>38</v>
       </c>
       <c r="K31" t="n">
-        <v>-30.43478260869566</v>
+        <v>-100</v>
       </c>
       <c r="L31" t="n">
         <v>359.5</v>
@@ -1860,7 +1882,7 @@
         <v>38</v>
       </c>
       <c r="K32" t="n">
-        <v>-36.36363636363637</v>
+        <v>-100</v>
       </c>
       <c r="L32" t="n">
         <v>358.7</v>
@@ -1911,7 +1933,7 @@
         <v>40</v>
       </c>
       <c r="K33" t="n">
-        <v>-39.1304347826087</v>
+        <v>-100</v>
       </c>
       <c r="L33" t="n">
         <v>357.7</v>
@@ -1962,7 +1984,7 @@
         <v>42</v>
       </c>
       <c r="K34" t="n">
-        <v>-28</v>
+        <v>-20</v>
       </c>
       <c r="L34" t="n">
         <v>357</v>
@@ -2013,7 +2035,7 @@
         <v>42</v>
       </c>
       <c r="K35" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L35" t="n">
         <v>356.9</v>
@@ -2064,7 +2086,7 @@
         <v>42</v>
       </c>
       <c r="K36" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>356.8</v>
@@ -2115,7 +2137,7 @@
         <v>44</v>
       </c>
       <c r="K37" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>356.6</v>
@@ -2166,7 +2188,7 @@
         <v>45</v>
       </c>
       <c r="K38" t="n">
-        <v>-47.36842105263158</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L38" t="n">
         <v>356.5</v>
@@ -2217,7 +2239,7 @@
         <v>47</v>
       </c>
       <c r="K39" t="n">
-        <v>-68.42105263157895</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>356.2</v>
@@ -2268,7 +2290,7 @@
         <v>50</v>
       </c>
       <c r="K40" t="n">
-        <v>-72.72727272727273</v>
+        <v>-50</v>
       </c>
       <c r="L40" t="n">
         <v>355.6</v>
@@ -2319,7 +2341,7 @@
         <v>51</v>
       </c>
       <c r="K41" t="n">
-        <v>-65.21739130434783</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L41" t="n">
         <v>355.1</v>
@@ -2370,7 +2392,7 @@
         <v>53</v>
       </c>
       <c r="K42" t="n">
-        <v>-65.21739130434783</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L42" t="n">
         <v>354.4</v>
@@ -2421,7 +2443,7 @@
         <v>55</v>
       </c>
       <c r="K43" t="n">
-        <v>-68</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L43" t="n">
         <v>353.7</v>
@@ -2472,7 +2494,7 @@
         <v>56</v>
       </c>
       <c r="K44" t="n">
-        <v>-68</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L44" t="n">
         <v>352.7</v>
@@ -2523,7 +2545,7 @@
         <v>56</v>
       </c>
       <c r="K45" t="n">
-        <v>-57.89473684210527</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L45" t="n">
         <v>351.7</v>
@@ -2574,7 +2596,7 @@
         <v>62</v>
       </c>
       <c r="K46" t="n">
-        <v>-68</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L46" t="n">
         <v>350.1</v>
@@ -2625,7 +2647,7 @@
         <v>63</v>
       </c>
       <c r="K47" t="n">
-        <v>-60</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L47" t="n">
         <v>348.8</v>
@@ -2676,7 +2698,7 @@
         <v>63</v>
       </c>
       <c r="K48" t="n">
-        <v>-60</v>
+        <v>-75</v>
       </c>
       <c r="L48" t="n">
         <v>347.4</v>
@@ -2727,7 +2749,7 @@
         <v>63</v>
       </c>
       <c r="K49" t="n">
-        <v>-60</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L49" t="n">
         <v>346.2</v>
@@ -2778,7 +2800,7 @@
         <v>65</v>
       </c>
       <c r="K50" t="n">
-        <v>-62.96296296296296</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L50" t="n">
         <v>345.1</v>
@@ -2829,7 +2851,7 @@
         <v>66</v>
       </c>
       <c r="K51" t="n">
-        <v>-64.28571428571429</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L51" t="n">
         <v>343.8</v>
@@ -2880,7 +2902,7 @@
         <v>68</v>
       </c>
       <c r="K52" t="n">
-        <v>-53.33333333333334</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L52" t="n">
         <v>342.9</v>
@@ -2931,7 +2953,7 @@
         <v>74</v>
       </c>
       <c r="K53" t="n">
-        <v>-23.52941176470588</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>342.8</v>
@@ -2982,7 +3004,7 @@
         <v>77</v>
       </c>
       <c r="K54" t="n">
-        <v>-37.14285714285715</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L54" t="n">
         <v>342.5</v>
@@ -3033,7 +3055,7 @@
         <v>79</v>
       </c>
       <c r="K55" t="n">
-        <v>-29.72972972972973</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L55" t="n">
         <v>342.4</v>
@@ -3084,7 +3106,7 @@
         <v>80</v>
       </c>
       <c r="K56" t="n">
-        <v>-26.31578947368421</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L56" t="n">
         <v>343</v>
@@ -3135,7 +3157,7 @@
         <v>86</v>
       </c>
       <c r="K57" t="n">
-        <v>-4.761904761904762</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L57" t="n">
         <v>344.1</v>
@@ -3186,7 +3208,7 @@
         <v>90</v>
       </c>
       <c r="K58" t="n">
-        <v>2.222222222222222</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L58" t="n">
         <v>345.6</v>
@@ -3237,7 +3259,7 @@
         <v>92</v>
       </c>
       <c r="K59" t="n">
-        <v>11.11111111111111</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L59" t="n">
         <v>347.3</v>
@@ -3288,7 +3310,7 @@
         <v>92</v>
       </c>
       <c r="K60" t="n">
-        <v>19.04761904761905</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="L60" t="n">
         <v>349.2</v>
@@ -3339,7 +3361,7 @@
         <v>98</v>
       </c>
       <c r="K61" t="n">
-        <v>2.127659574468085</v>
+        <v>40</v>
       </c>
       <c r="L61" t="n">
         <v>350.6</v>
@@ -3390,7 +3412,7 @@
         <v>105</v>
       </c>
       <c r="K62" t="n">
-        <v>19.23076923076923</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L62" t="n">
         <v>352.5</v>
@@ -3441,7 +3463,7 @@
         <v>112</v>
       </c>
       <c r="K63" t="n">
-        <v>8.771929824561402</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L63" t="n">
         <v>353.1</v>
@@ -3492,7 +3514,7 @@
         <v>115</v>
       </c>
       <c r="K64" t="n">
-        <v>15.25423728813559</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L64" t="n">
         <v>354.3</v>
@@ -3543,7 +3565,7 @@
         <v>117</v>
       </c>
       <c r="K65" t="n">
-        <v>11.47540983606557</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L65" t="n">
         <v>355.1</v>
@@ -3594,7 +3616,7 @@
         <v>117</v>
       </c>
       <c r="K66" t="n">
-        <v>23.63636363636364</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L66" t="n">
         <v>355.8</v>
@@ -3645,7 +3667,7 @@
         <v>117</v>
       </c>
       <c r="K67" t="n">
-        <v>22.22222222222222</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L67" t="n">
         <v>355.9</v>
@@ -3696,7 +3718,7 @@
         <v>118</v>
       </c>
       <c r="K68" t="n">
-        <v>20</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L68" t="n">
         <v>355.5</v>
@@ -3747,7 +3769,7 @@
         <v>118</v>
       </c>
       <c r="K69" t="n">
-        <v>20</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L69" t="n">
         <v>354.9</v>
@@ -3798,7 +3820,7 @@
         <v>119</v>
       </c>
       <c r="K70" t="n">
-        <v>22.22222222222222</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L70" t="n">
         <v>354.2</v>
@@ -3849,7 +3871,7 @@
         <v>122</v>
       </c>
       <c r="K71" t="n">
-        <v>28.57142857142857</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L71" t="n">
         <v>354.4</v>
@@ -3900,7 +3922,7 @@
         <v>123</v>
       </c>
       <c r="K72" t="n">
-        <v>23.63636363636364</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L72" t="n">
         <v>353.8</v>
@@ -3951,7 +3973,7 @@
         <v>125</v>
       </c>
       <c r="K73" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>354.1</v>
@@ -4002,7 +4024,7 @@
         <v>126</v>
       </c>
       <c r="K74" t="n">
-        <v>26.53061224489796</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>354.2</v>
@@ -4053,7 +4075,7 @@
         <v>126</v>
       </c>
       <c r="K75" t="n">
-        <v>23.40425531914894</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>354.5</v>
@@ -4104,7 +4126,7 @@
         <v>127</v>
       </c>
       <c r="K76" t="n">
-        <v>19.14893617021277</v>
+        <v>20</v>
       </c>
       <c r="L76" t="n">
         <v>354.7</v>
@@ -4155,7 +4177,7 @@
         <v>129</v>
       </c>
       <c r="K77" t="n">
-        <v>11.62790697674419</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L77" t="n">
         <v>355.1</v>
@@ -4206,7 +4228,7 @@
         <v>129</v>
       </c>
       <c r="K78" t="n">
-        <v>2.564102564102564</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L78" t="n">
         <v>355.6</v>
@@ -4257,7 +4279,7 @@
         <v>131</v>
       </c>
       <c r="K79" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>355.9</v>
@@ -4308,7 +4330,7 @@
         <v>131</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L80" t="n">
         <v>356.3</v>
@@ -4359,7 +4381,7 @@
         <v>131</v>
       </c>
       <c r="K81" t="n">
-        <v>9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L81" t="n">
         <v>356.4</v>
@@ -4410,7 +4432,7 @@
         <v>134</v>
       </c>
       <c r="K82" t="n">
-        <v>-24.13793103448276</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>356.3</v>
@@ -4461,7 +4483,7 @@
         <v>137</v>
       </c>
       <c r="K83" t="n">
-        <v>12</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L83" t="n">
         <v>356.3</v>
@@ -4512,7 +4534,7 @@
         <v>138</v>
       </c>
       <c r="K84" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>356.3</v>
@@ -4563,7 +4585,7 @@
         <v>138</v>
       </c>
       <c r="K85" t="n">
-        <v>14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L85" t="n">
         <v>356.3</v>
@@ -4614,7 +4636,7 @@
         <v>138</v>
       </c>
       <c r="K86" t="n">
-        <v>14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L86" t="n">
         <v>356.4</v>
@@ -4665,7 +4687,7 @@
         <v>139</v>
       </c>
       <c r="K87" t="n">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>356.4</v>
@@ -4716,7 +4738,7 @@
         <v>139</v>
       </c>
       <c r="K88" t="n">
-        <v>23.80952380952381</v>
+        <v>25</v>
       </c>
       <c r="L88" t="n">
         <v>356.4</v>
@@ -4767,7 +4789,7 @@
         <v>140</v>
       </c>
       <c r="K89" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>356.7</v>
@@ -4818,7 +4840,7 @@
         <v>142</v>
       </c>
       <c r="K90" t="n">
-        <v>21.73913043478261</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L90" t="n">
         <v>356.8</v>
@@ -4869,7 +4891,7 @@
         <v>143</v>
       </c>
       <c r="K91" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L91" t="n">
         <v>356.8</v>
@@ -4920,7 +4942,7 @@
         <v>146</v>
       </c>
       <c r="K92" t="n">
-        <v>-4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>356.8</v>
@@ -4971,7 +4993,7 @@
         <v>148</v>
       </c>
       <c r="K93" t="n">
-        <v>-21.73913043478261</v>
+        <v>-60</v>
       </c>
       <c r="L93" t="n">
         <v>356.3</v>
@@ -5022,7 +5044,7 @@
         <v>149</v>
       </c>
       <c r="K94" t="n">
-        <v>-30.43478260869566</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L94" t="n">
         <v>355.6</v>
@@ -5073,7 +5095,7 @@
         <v>151</v>
       </c>
       <c r="K95" t="n">
-        <v>-20</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L95" t="n">
         <v>355.1</v>
@@ -5124,7 +5146,7 @@
         <v>153</v>
       </c>
       <c r="K96" t="n">
-        <v>-23.07692307692308</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L96" t="n">
         <v>354.4</v>
@@ -5175,7 +5197,7 @@
         <v>153</v>
       </c>
       <c r="K97" t="n">
-        <v>-33.33333333333333</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L97" t="n">
         <v>353.6</v>
@@ -5226,7 +5248,7 @@
         <v>155</v>
       </c>
       <c r="K98" t="n">
-        <v>-38.46153846153847</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>352.6</v>
@@ -5277,7 +5299,7 @@
         <v>155</v>
       </c>
       <c r="K99" t="n">
-        <v>-33.33333333333333</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L99" t="n">
         <v>351.5</v>
@@ -5328,7 +5350,7 @@
         <v>155</v>
       </c>
       <c r="K100" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L100" t="n">
         <v>350.6</v>
@@ -5379,7 +5401,7 @@
         <v>155</v>
       </c>
       <c r="K101" t="n">
-        <v>-33.33333333333333</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L101" t="n">
         <v>349.8</v>
@@ -5430,7 +5452,7 @@
         <v>156</v>
       </c>
       <c r="K102" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L102" t="n">
         <v>349.2</v>
@@ -5481,7 +5503,7 @@
         <v>156</v>
       </c>
       <c r="K103" t="n">
-        <v>-47.36842105263158</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L103" t="n">
         <v>348.8</v>
@@ -5532,7 +5554,7 @@
         <v>160</v>
       </c>
       <c r="K104" t="n">
-        <v>-27.27272727272727</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L104" t="n">
         <v>348.9</v>
@@ -5583,7 +5605,7 @@
         <v>163</v>
       </c>
       <c r="K105" t="n">
-        <v>-36</v>
+        <v>-20</v>
       </c>
       <c r="L105" t="n">
         <v>348.5</v>
@@ -5634,7 +5656,7 @@
         <v>165</v>
       </c>
       <c r="K106" t="n">
-        <v>-25.92592592592592</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>348.5</v>
@@ -5685,7 +5707,7 @@
         <v>167</v>
       </c>
       <c r="K107" t="n">
-        <v>-21.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>348.7</v>
@@ -5736,7 +5758,7 @@
         <v>169</v>
       </c>
       <c r="K108" t="n">
-        <v>-26.66666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L108" t="n">
         <v>348.9</v>
@@ -5787,7 +5809,7 @@
         <v>171</v>
       </c>
       <c r="K109" t="n">
-        <v>-22.58064516129032</v>
+        <v>25</v>
       </c>
       <c r="L109" t="n">
         <v>349.3</v>
@@ -5838,7 +5860,7 @@
         <v>171</v>
       </c>
       <c r="K110" t="n">
-        <v>-17.24137931034483</v>
+        <v>25</v>
       </c>
       <c r="L110" t="n">
         <v>349.7</v>
@@ -5889,7 +5911,7 @@
         <v>175</v>
       </c>
       <c r="K111" t="n">
-        <v>-25</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L111" t="n">
         <v>349.7</v>
@@ -5940,7 +5962,7 @@
         <v>179</v>
       </c>
       <c r="K112" t="n">
-        <v>-3.03030303030303</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L112" t="n">
         <v>350.2</v>
@@ -5991,7 +6013,7 @@
         <v>180</v>
       </c>
       <c r="K113" t="n">
-        <v>6.25</v>
+        <v>10</v>
       </c>
       <c r="L113" t="n">
         <v>350.8</v>
@@ -6042,7 +6064,7 @@
         <v>180</v>
       </c>
       <c r="K114" t="n">
-        <v>9.67741935483871</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L114" t="n">
         <v>351</v>
@@ -6093,7 +6115,7 @@
         <v>181</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L115" t="n">
         <v>351.4</v>
@@ -6144,7 +6166,7 @@
         <v>183</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="L116" t="n">
         <v>351.4</v>
@@ -6195,7 +6217,7 @@
         <v>184</v>
       </c>
       <c r="K117" t="n">
-        <v>3.225806451612903</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L117" t="n">
         <v>351.3</v>
@@ -6246,7 +6268,7 @@
         <v>185</v>
       </c>
       <c r="K118" t="n">
-        <v>6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L118" t="n">
         <v>351.3</v>
@@ -6297,7 +6319,7 @@
         <v>187</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L119" t="n">
         <v>350.9</v>
@@ -6348,7 +6370,7 @@
         <v>188</v>
       </c>
       <c r="K120" t="n">
-        <v>3.03030303030303</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L120" t="n">
         <v>350.6</v>
@@ -6399,7 +6421,7 @@
         <v>188</v>
       </c>
       <c r="K121" t="n">
-        <v>3.03030303030303</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L121" t="n">
         <v>350.7</v>
@@ -6450,7 +6472,7 @@
         <v>189</v>
       </c>
       <c r="K122" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>350.5</v>
@@ -6501,7 +6523,7 @@
         <v>190</v>
       </c>
       <c r="K123" t="n">
-        <v>5.88235294117647</v>
+        <v>-40</v>
       </c>
       <c r="L123" t="n">
         <v>350.1</v>
@@ -6552,7 +6574,7 @@
         <v>190</v>
       </c>
       <c r="K124" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>349.7</v>
@@ -6603,7 +6625,7 @@
         <v>193</v>
       </c>
       <c r="K125" t="n">
-        <v>-6.666666666666667</v>
+        <v>-40</v>
       </c>
       <c r="L125" t="n">
         <v>349.1</v>
@@ -6654,7 +6676,7 @@
         <v>196</v>
       </c>
       <c r="K126" t="n">
-        <v>-3.225806451612903</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L126" t="n">
         <v>349</v>
@@ -6705,7 +6727,7 @@
         <v>196</v>
       </c>
       <c r="K127" t="n">
-        <v>-10.3448275862069</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L127" t="n">
         <v>348.8</v>
@@ -6756,7 +6778,7 @@
         <v>198</v>
       </c>
       <c r="K128" t="n">
-        <v>3.448275862068965</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L128" t="n">
         <v>348.9</v>
@@ -6807,7 +6829,7 @@
         <v>200</v>
       </c>
       <c r="K129" t="n">
-        <v>3.448275862068965</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>349.4</v>
@@ -6858,7 +6880,7 @@
         <v>200</v>
       </c>
       <c r="K130" t="n">
-        <v>3.448275862068965</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>349.8</v>
@@ -6909,7 +6931,7 @@
         <v>201</v>
       </c>
       <c r="K131" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>350.3</v>
@@ -6960,7 +6982,7 @@
         <v>201</v>
       </c>
       <c r="K132" t="n">
-        <v>9.090909090909092</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L132" t="n">
         <v>350.7</v>
@@ -7011,7 +7033,7 @@
         <v>202</v>
       </c>
       <c r="K133" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L133" t="n">
         <v>351.3</v>
@@ -7062,7 +7084,7 @@
         <v>203</v>
       </c>
       <c r="K134" t="n">
-        <v>4.347826086956522</v>
+        <v>80</v>
       </c>
       <c r="L134" t="n">
         <v>351.8</v>
@@ -7113,7 +7135,7 @@
         <v>204</v>
       </c>
       <c r="K135" t="n">
-        <v>4.347826086956522</v>
+        <v>50</v>
       </c>
       <c r="L135" t="n">
         <v>352.5</v>
@@ -7164,7 +7186,7 @@
         <v>205</v>
       </c>
       <c r="K136" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>352.8</v>
@@ -7215,7 +7237,7 @@
         <v>205</v>
       </c>
       <c r="K137" t="n">
-        <v>4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L137" t="n">
         <v>353.1</v>
@@ -7266,7 +7288,7 @@
         <v>207</v>
       </c>
       <c r="K138" t="n">
-        <v>18.18181818181818</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L138" t="n">
         <v>353.4</v>
@@ -7317,7 +7339,7 @@
         <v>210</v>
       </c>
       <c r="K139" t="n">
-        <v>13.04347826086956</v>
+        <v>-20</v>
       </c>
       <c r="L139" t="n">
         <v>353.2</v>
@@ -7368,7 +7390,7 @@
         <v>212</v>
       </c>
       <c r="K140" t="n">
-        <v>16.66666666666666</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L140" t="n">
         <v>353.2</v>
@@ -7419,7 +7441,7 @@
         <v>213</v>
       </c>
       <c r="K141" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>353.2</v>
@@ -7470,7 +7492,7 @@
         <v>217</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L142" t="n">
         <v>352.8</v>
@@ -7521,7 +7543,7 @@
         <v>220</v>
       </c>
       <c r="K143" t="n">
-        <v>13.33333333333333</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L143" t="n">
         <v>352.6</v>
@@ -7572,7 +7594,7 @@
         <v>222</v>
       </c>
       <c r="K144" t="n">
-        <v>18.75</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L144" t="n">
         <v>352.7</v>
@@ -7623,7 +7645,7 @@
         <v>223</v>
       </c>
       <c r="K145" t="n">
-        <v>26.66666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L145" t="n">
         <v>352.8</v>
@@ -7674,7 +7696,7 @@
         <v>223</v>
       </c>
       <c r="K146" t="n">
-        <v>18.51851851851852</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L146" t="n">
         <v>353</v>
@@ -7725,7 +7747,7 @@
         <v>224</v>
       </c>
       <c r="K147" t="n">
-        <v>21.42857142857143</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L147" t="n">
         <v>353.3</v>
@@ -7776,7 +7798,7 @@
         <v>225</v>
       </c>
       <c r="K148" t="n">
-        <v>18.51851851851852</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>353.5</v>
@@ -7827,7 +7849,7 @@
         <v>226</v>
       </c>
       <c r="K149" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L149" t="n">
         <v>353.9</v>
@@ -7929,7 +7951,7 @@
         <v>228</v>
       </c>
       <c r="K151" t="n">
-        <v>-3.703703703703703</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L151" t="n">
         <v>354</v>
@@ -7980,7 +8002,7 @@
         <v>230</v>
       </c>
       <c r="K152" t="n">
-        <v>3.448275862068965</v>
+        <v>20</v>
       </c>
       <c r="L152" t="n">
         <v>354.5</v>
@@ -8031,7 +8053,7 @@
         <v>231</v>
       </c>
       <c r="K153" t="n">
-        <v>-3.448275862068965</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L153" t="n">
         <v>354.6</v>
@@ -8082,7 +8104,7 @@
         <v>233</v>
       </c>
       <c r="K154" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L154" t="n">
         <v>354.3</v>
@@ -8133,7 +8155,7 @@
         <v>233</v>
       </c>
       <c r="K155" t="n">
-        <v>-3.448275862068965</v>
+        <v>-20</v>
       </c>
       <c r="L155" t="n">
         <v>354.1</v>
@@ -8184,7 +8206,7 @@
         <v>233</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L156" t="n">
         <v>353.9</v>
@@ -8235,7 +8257,7 @@
         <v>233</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L157" t="n">
         <v>353.6</v>
@@ -8286,7 +8308,7 @@
         <v>233</v>
       </c>
       <c r="K158" t="n">
-        <v>-7.692307692307693</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L158" t="n">
         <v>353.2</v>
@@ -8337,7 +8359,7 @@
         <v>235</v>
       </c>
       <c r="K159" t="n">
-        <v>-4</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L159" t="n">
         <v>352.7</v>
@@ -8388,7 +8410,7 @@
         <v>237</v>
       </c>
       <c r="K160" t="n">
-        <v>-4</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L160" t="n">
         <v>352.4</v>
@@ -8439,7 +8461,7 @@
         <v>237</v>
       </c>
       <c r="K161" t="n">
-        <v>-8.333333333333332</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L161" t="n">
         <v>352.3</v>
@@ -8490,7 +8512,7 @@
         <v>241</v>
       </c>
       <c r="K162" t="n">
-        <v>-8.333333333333332</v>
+        <v>-60</v>
       </c>
       <c r="L162" t="n">
         <v>351.6</v>
@@ -8541,7 +8563,7 @@
         <v>242</v>
       </c>
       <c r="K163" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L163" t="n">
         <v>351.1</v>
@@ -8592,7 +8614,7 @@
         <v>244</v>
       </c>
       <c r="K164" t="n">
-        <v>-18.18181818181818</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L164" t="n">
         <v>351</v>
@@ -8643,7 +8665,7 @@
         <v>244</v>
       </c>
       <c r="K165" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L165" t="n">
         <v>350.9</v>
@@ -8694,7 +8716,7 @@
         <v>246</v>
       </c>
       <c r="K166" t="n">
-        <v>-21.73913043478261</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L166" t="n">
         <v>350.6</v>
@@ -8745,7 +8767,7 @@
         <v>249</v>
       </c>
       <c r="K167" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>350.6</v>
@@ -8796,7 +8818,7 @@
         <v>250</v>
       </c>
       <c r="K168" t="n">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="L168" t="n">
         <v>350.7</v>
@@ -8847,7 +8869,7 @@
         <v>250</v>
       </c>
       <c r="K169" t="n">
-        <v>-8.333333333333332</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L169" t="n">
         <v>351</v>
@@ -8898,7 +8920,7 @@
         <v>253</v>
       </c>
       <c r="K170" t="n">
-        <v>-18.51851851851852</v>
+        <v>-12.5</v>
       </c>
       <c r="L170" t="n">
         <v>350.8</v>
@@ -8949,7 +8971,7 @@
         <v>254</v>
       </c>
       <c r="K171" t="n">
-        <v>-15.38461538461539</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L171" t="n">
         <v>350.5</v>
@@ -9000,7 +9022,7 @@
         <v>255</v>
       </c>
       <c r="K172" t="n">
-        <v>-28</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L172" t="n">
         <v>350.5</v>
@@ -9051,7 +9073,7 @@
         <v>257</v>
       </c>
       <c r="K173" t="n">
-        <v>-15.38461538461539</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L173" t="n">
         <v>350.6</v>
@@ -9102,7 +9124,7 @@
         <v>257</v>
       </c>
       <c r="K174" t="n">
-        <v>-8.333333333333332</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L174" t="n">
         <v>350.5</v>
@@ -9153,7 +9175,7 @@
         <v>259</v>
       </c>
       <c r="K175" t="n">
-        <v>-15.38461538461539</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L175" t="n">
         <v>350.2</v>
@@ -9204,7 +9226,7 @@
         <v>259</v>
       </c>
       <c r="K176" t="n">
-        <v>-15.38461538461539</v>
+        <v>-40</v>
       </c>
       <c r="L176" t="n">
         <v>350.1</v>
@@ -9255,7 +9277,7 @@
         <v>259</v>
       </c>
       <c r="K177" t="n">
-        <v>-15.38461538461539</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L177" t="n">
         <v>349.7</v>
@@ -9306,7 +9328,7 @@
         <v>259</v>
       </c>
       <c r="K178" t="n">
-        <v>-15.38461538461539</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L178" t="n">
         <v>349.2</v>
@@ -9357,7 +9379,7 @@
         <v>260</v>
       </c>
       <c r="K179" t="n">
-        <v>-12</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L179" t="n">
         <v>348.6</v>
@@ -9408,7 +9430,7 @@
         <v>261</v>
       </c>
       <c r="K180" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L180" t="n">
         <v>348.2</v>
@@ -9459,7 +9481,7 @@
         <v>261</v>
       </c>
       <c r="K181" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>347.9</v>
@@ -9510,7 +9532,7 @@
         <v>261</v>
       </c>
       <c r="K182" t="n">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="L182" t="n">
         <v>347.7</v>
@@ -9561,7 +9583,7 @@
         <v>262</v>
       </c>
       <c r="K183" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L183" t="n">
         <v>347.2</v>
@@ -9612,7 +9634,7 @@
         <v>262</v>
       </c>
       <c r="K184" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L184" t="n">
         <v>346.7</v>
@@ -9663,7 +9685,7 @@
         <v>263</v>
       </c>
       <c r="K185" t="n">
-        <v>-26.31578947368421</v>
+        <v>-50</v>
       </c>
       <c r="L185" t="n">
         <v>346.5</v>
@@ -9714,7 +9736,7 @@
         <v>264</v>
       </c>
       <c r="K186" t="n">
-        <v>-22.22222222222222</v>
+        <v>-60</v>
       </c>
       <c r="L186" t="n">
         <v>346.2</v>
@@ -9765,7 +9787,7 @@
         <v>264</v>
       </c>
       <c r="K187" t="n">
-        <v>-46.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L187" t="n">
         <v>345.9</v>
@@ -9816,7 +9838,7 @@
         <v>264</v>
       </c>
       <c r="K188" t="n">
-        <v>-57.14285714285714</v>
+        <v>-50</v>
       </c>
       <c r="L188" t="n">
         <v>345.6</v>
@@ -9867,7 +9889,7 @@
         <v>265</v>
       </c>
       <c r="K189" t="n">
-        <v>-60</v>
+        <v>-50</v>
       </c>
       <c r="L189" t="n">
         <v>345.3</v>
@@ -9918,7 +9940,7 @@
         <v>266</v>
       </c>
       <c r="K190" t="n">
-        <v>-38.46153846153847</v>
+        <v>-20</v>
       </c>
       <c r="L190" t="n">
         <v>345.2</v>
@@ -9969,7 +9991,7 @@
         <v>267</v>
       </c>
       <c r="K191" t="n">
-        <v>-38.46153846153847</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L191" t="n">
         <v>345</v>
@@ -10020,7 +10042,7 @@
         <v>268</v>
       </c>
       <c r="K192" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>344.9</v>
@@ -10071,7 +10093,7 @@
         <v>269</v>
       </c>
       <c r="K193" t="n">
-        <v>-50</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L193" t="n">
         <v>344.8</v>
@@ -10122,7 +10144,7 @@
         <v>270</v>
       </c>
       <c r="K194" t="n">
-        <v>-38.46153846153847</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L194" t="n">
         <v>344.8</v>
@@ -10173,7 +10195,7 @@
         <v>271</v>
       </c>
       <c r="K195" t="n">
-        <v>-16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L195" t="n">
         <v>344.8</v>
@@ -10224,7 +10246,7 @@
         <v>273</v>
       </c>
       <c r="K196" t="n">
-        <v>-28.57142857142857</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L196" t="n">
         <v>344.7</v>
@@ -10275,7 +10297,7 @@
         <v>276</v>
       </c>
       <c r="K197" t="n">
-        <v>-5.88235294117647</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L197" t="n">
         <v>344.9</v>
@@ -10326,7 +10348,7 @@
         <v>276</v>
       </c>
       <c r="K198" t="n">
-        <v>-5.88235294117647</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L198" t="n">
         <v>345.1</v>
@@ -10377,7 +10399,7 @@
         <v>278</v>
       </c>
       <c r="K199" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>345.2</v>
@@ -10428,7 +10450,7 @@
         <v>279</v>
       </c>
       <c r="K200" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>345.1</v>
@@ -10479,7 +10501,7 @@
         <v>279</v>
       </c>
       <c r="K201" t="n">
-        <v>-11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L201" t="n">
         <v>345.1</v>
@@ -10530,7 +10552,7 @@
         <v>279</v>
       </c>
       <c r="K202" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>345</v>
@@ -10581,7 +10603,7 @@
         <v>280</v>
       </c>
       <c r="K203" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L203" t="n">
         <v>344.9</v>
@@ -10632,7 +10654,7 @@
         <v>281</v>
       </c>
       <c r="K204" t="n">
-        <v>-5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L204" t="n">
         <v>344.8</v>
@@ -10683,7 +10705,7 @@
         <v>281</v>
       </c>
       <c r="K205" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
         <v>344.6</v>
@@ -10734,7 +10756,7 @@
         <v>281</v>
       </c>
       <c r="K206" t="n">
-        <v>-5.88235294117647</v>
+        <v>-60</v>
       </c>
       <c r="L206" t="n">
         <v>344.6</v>
@@ -10785,7 +10807,7 @@
         <v>281</v>
       </c>
       <c r="K207" t="n">
-        <v>-5.88235294117647</v>
+        <v>-60</v>
       </c>
       <c r="L207" t="n">
         <v>344.3</v>
@@ -10836,7 +10858,7 @@
         <v>281</v>
       </c>
       <c r="K208" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L208" t="n">
         <v>344</v>
@@ -10938,7 +10960,7 @@
         <v>281</v>
       </c>
       <c r="K210" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>343.9</v>
@@ -11040,7 +11062,7 @@
         <v>281</v>
       </c>
       <c r="K212" t="n">
-        <v>-7.692307692307693</v>
+        <v>100</v>
       </c>
       <c r="L212" t="n">
         <v>343.9</v>
@@ -11090,9 +11112,7 @@
       <c r="J213" t="n">
         <v>281</v>
       </c>
-      <c r="K213" t="n">
-        <v>0</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>344</v>
       </c>
@@ -11141,9 +11161,7 @@
       <c r="J214" t="n">
         <v>281</v>
       </c>
-      <c r="K214" t="n">
-        <v>-9.090909090909092</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>344</v>
       </c>
@@ -11193,7 +11211,7 @@
         <v>282</v>
       </c>
       <c r="K215" t="n">
-        <v>-9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L215" t="n">
         <v>344.1</v>
@@ -11244,7 +11262,7 @@
         <v>284</v>
       </c>
       <c r="K216" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>344</v>
@@ -11295,7 +11313,7 @@
         <v>285</v>
       </c>
       <c r="K217" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>344</v>
@@ -11346,7 +11364,7 @@
         <v>286</v>
       </c>
       <c r="K218" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L218" t="n">
         <v>344.1</v>
@@ -11397,7 +11415,7 @@
         <v>290</v>
       </c>
       <c r="K219" t="n">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L219" t="n">
         <v>344.6</v>
@@ -11448,7 +11466,7 @@
         <v>291</v>
       </c>
       <c r="K220" t="n">
-        <v>33.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="L220" t="n">
         <v>345</v>
@@ -11499,7 +11517,7 @@
         <v>292</v>
       </c>
       <c r="K221" t="n">
-        <v>38.46153846153847</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L221" t="n">
         <v>345.5</v>
@@ -11550,7 +11568,7 @@
         <v>293</v>
       </c>
       <c r="K222" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L222" t="n">
         <v>345.9</v>
@@ -11601,7 +11619,7 @@
         <v>294</v>
       </c>
       <c r="K223" t="n">
-        <v>42.85714285714285</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L223" t="n">
         <v>346.4</v>
@@ -11652,7 +11670,7 @@
         <v>294</v>
       </c>
       <c r="K224" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L224" t="n">
         <v>346.9</v>
@@ -11703,7 +11721,7 @@
         <v>294</v>
       </c>
       <c r="K225" t="n">
-        <v>38.46153846153847</v>
+        <v>60</v>
       </c>
       <c r="L225" t="n">
         <v>347.3</v>
@@ -11754,7 +11772,7 @@
         <v>297</v>
       </c>
       <c r="K226" t="n">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L226" t="n">
         <v>348.2</v>
@@ -11805,7 +11823,7 @@
         <v>300</v>
       </c>
       <c r="K227" t="n">
-        <v>57.89473684210527</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L227" t="n">
         <v>349.3</v>
@@ -11856,7 +11874,7 @@
         <v>302</v>
       </c>
       <c r="K228" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L228" t="n">
         <v>350.1</v>
@@ -11907,7 +11925,7 @@
         <v>303</v>
       </c>
       <c r="K229" t="n">
-        <v>45.45454545454545</v>
+        <v>50</v>
       </c>
       <c r="L229" t="n">
         <v>350.6</v>
@@ -12009,7 +12027,7 @@
         <v>303</v>
       </c>
       <c r="K231" t="n">
-        <v>45.45454545454545</v>
+        <v>60</v>
       </c>
       <c r="L231" t="n">
         <v>351.7</v>
@@ -12060,7 +12078,7 @@
         <v>305</v>
       </c>
       <c r="K232" t="n">
-        <v>50</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L232" t="n">
         <v>352.5</v>
@@ -12162,7 +12180,7 @@
         <v>309</v>
       </c>
       <c r="K234" t="n">
-        <v>42.85714285714285</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L234" t="n">
         <v>353.7</v>
@@ -12213,7 +12231,7 @@
         <v>311</v>
       </c>
       <c r="K235" t="n">
-        <v>31.03448275862069</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L235" t="n">
         <v>354.2</v>
@@ -12264,7 +12282,7 @@
         <v>312</v>
       </c>
       <c r="K236" t="n">
-        <v>35.71428571428572</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L236" t="n">
         <v>354.3</v>
@@ -12315,7 +12333,7 @@
         <v>312</v>
       </c>
       <c r="K237" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>354.1</v>
@@ -12366,7 +12384,7 @@
         <v>312</v>
       </c>
       <c r="K238" t="n">
-        <v>30.76923076923077</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L238" t="n">
         <v>354.1</v>
@@ -12417,7 +12435,7 @@
         <v>312</v>
       </c>
       <c r="K239" t="n">
-        <v>18.18181818181818</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L239" t="n">
         <v>354</v>
@@ -12468,7 +12486,7 @@
         <v>312</v>
       </c>
       <c r="K240" t="n">
-        <v>23.80952380952381</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L240" t="n">
         <v>353.9</v>
@@ -12519,7 +12537,7 @@
         <v>313</v>
       </c>
       <c r="K241" t="n">
-        <v>14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L241" t="n">
         <v>353.7</v>
@@ -12570,7 +12588,7 @@
         <v>313</v>
       </c>
       <c r="K242" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L242" t="n">
         <v>353.3</v>
@@ -12621,7 +12639,7 @@
         <v>314</v>
       </c>
       <c r="K243" t="n">
-        <v>10</v>
+        <v>-100</v>
       </c>
       <c r="L243" t="n">
         <v>353</v>
@@ -12672,7 +12690,7 @@
         <v>314</v>
       </c>
       <c r="K244" t="n">
-        <v>10</v>
+        <v>-100</v>
       </c>
       <c r="L244" t="n">
         <v>352.5</v>
@@ -12723,7 +12741,7 @@
         <v>315</v>
       </c>
       <c r="K245" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L245" t="n">
         <v>352.3</v>
@@ -12774,7 +12792,7 @@
         <v>316</v>
       </c>
       <c r="K246" t="n">
-        <v>-5.263157894736842</v>
+        <v>-50</v>
       </c>
       <c r="L246" t="n">
         <v>352.1</v>
@@ -12825,7 +12843,7 @@
         <v>316</v>
       </c>
       <c r="K247" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L247" t="n">
         <v>351.9</v>
@@ -12876,7 +12894,7 @@
         <v>317</v>
       </c>
       <c r="K248" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L248" t="n">
         <v>351.6</v>
@@ -12927,7 +12945,7 @@
         <v>317</v>
       </c>
       <c r="K249" t="n">
-        <v>-28.57142857142857</v>
+        <v>-60</v>
       </c>
       <c r="L249" t="n">
         <v>351.3</v>
@@ -12978,7 +12996,7 @@
         <v>317</v>
       </c>
       <c r="K250" t="n">
-        <v>-28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L250" t="n">
         <v>351</v>
@@ -13029,7 +13047,7 @@
         <v>317</v>
       </c>
       <c r="K251" t="n">
-        <v>-28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L251" t="n">
         <v>350.8</v>
@@ -13080,7 +13098,7 @@
         <v>318</v>
       </c>
       <c r="K252" t="n">
-        <v>-53.84615384615385</v>
+        <v>-50</v>
       </c>
       <c r="L252" t="n">
         <v>350.5</v>
@@ -13131,7 +13149,7 @@
         <v>318</v>
       </c>
       <c r="K253" t="n">
-        <v>-45.45454545454545</v>
+        <v>-50</v>
       </c>
       <c r="L253" t="n">
         <v>350.3</v>
@@ -13182,7 +13200,7 @@
         <v>318</v>
       </c>
       <c r="K254" t="n">
-        <v>-77.77777777777779</v>
+        <v>-100</v>
       </c>
       <c r="L254" t="n">
         <v>350.1</v>
@@ -13233,7 +13251,7 @@
         <v>319</v>
       </c>
       <c r="K255" t="n">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="L255" t="n">
         <v>349.7</v>
@@ -13284,7 +13302,7 @@
         <v>319</v>
       </c>
       <c r="K256" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L256" t="n">
         <v>349.4</v>
@@ -13335,7 +13353,7 @@
         <v>319</v>
       </c>
       <c r="K257" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L257" t="n">
         <v>349.1</v>
@@ -13386,7 +13404,7 @@
         <v>320</v>
       </c>
       <c r="K258" t="n">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="L258" t="n">
         <v>348.8</v>
@@ -13437,7 +13455,7 @@
         <v>322</v>
       </c>
       <c r="K259" t="n">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="L259" t="n">
         <v>348.7</v>
@@ -13488,7 +13506,7 @@
         <v>322</v>
       </c>
       <c r="K260" t="n">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="L260" t="n">
         <v>348.6</v>
@@ -13539,7 +13557,7 @@
         <v>324</v>
       </c>
       <c r="K261" t="n">
-        <v>-45.45454545454545</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>348.3</v>
@@ -13590,7 +13608,7 @@
         <v>326</v>
       </c>
       <c r="K262" t="n">
-        <v>-53.84615384615385</v>
+        <v>-50</v>
       </c>
       <c r="L262" t="n">
         <v>347.9</v>
@@ -13641,7 +13659,7 @@
         <v>328</v>
       </c>
       <c r="K263" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L263" t="n">
         <v>347.7</v>
@@ -13692,7 +13710,7 @@
         <v>329</v>
       </c>
       <c r="K264" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L264" t="n">
         <v>347.4</v>
@@ -13743,7 +13761,7 @@
         <v>331</v>
       </c>
       <c r="K265" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>347.4</v>
@@ -13794,7 +13812,7 @@
         <v>333</v>
       </c>
       <c r="K266" t="n">
-        <v>-29.41176470588236</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L266" t="n">
         <v>347.2</v>
@@ -13845,7 +13863,7 @@
         <v>334</v>
       </c>
       <c r="K267" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L267" t="n">
         <v>347.1</v>
@@ -13896,7 +13914,7 @@
         <v>334</v>
       </c>
       <c r="K268" t="n">
-        <v>-17.64705882352941</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L268" t="n">
         <v>347.1</v>
@@ -13947,7 +13965,7 @@
         <v>335</v>
       </c>
       <c r="K269" t="n">
-        <v>-22.22222222222222</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L269" t="n">
         <v>346.8</v>
@@ -13998,7 +14016,7 @@
         <v>335</v>
       </c>
       <c r="K270" t="n">
-        <v>-22.22222222222222</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L270" t="n">
         <v>346.5</v>
@@ -14049,7 +14067,7 @@
         <v>337</v>
       </c>
       <c r="K271" t="n">
-        <v>-10</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L271" t="n">
         <v>346.6</v>
@@ -14100,7 +14118,7 @@
         <v>337</v>
       </c>
       <c r="K272" t="n">
-        <v>-5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L272" t="n">
         <v>346.9</v>
@@ -14151,7 +14169,7 @@
         <v>338</v>
       </c>
       <c r="K273" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>347.1</v>
@@ -14202,7 +14220,7 @@
         <v>339</v>
       </c>
       <c r="K274" t="n">
-        <v>4.761904761904762</v>
+        <v>25</v>
       </c>
       <c r="L274" t="n">
         <v>347.5</v>
@@ -14253,7 +14271,7 @@
         <v>340</v>
       </c>
       <c r="K275" t="n">
-        <v>14.28571428571428</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L275" t="n">
         <v>347.8</v>
@@ -14304,7 +14322,7 @@
         <v>343</v>
       </c>
       <c r="K276" t="n">
-        <v>25</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L276" t="n">
         <v>348.6</v>
@@ -14355,7 +14373,7 @@
         <v>344</v>
       </c>
       <c r="K277" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L277" t="n">
         <v>349.2</v>
@@ -14406,7 +14424,7 @@
         <v>344</v>
       </c>
       <c r="K278" t="n">
-        <v>25</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L278" t="n">
         <v>349.8</v>
@@ -14457,7 +14475,7 @@
         <v>348</v>
       </c>
       <c r="K279" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L279" t="n">
         <v>350.1</v>
@@ -14508,7 +14526,7 @@
         <v>348</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L280" t="n">
         <v>350.4</v>
@@ -14559,7 +14577,7 @@
         <v>349</v>
       </c>
       <c r="K281" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>350.4</v>
@@ -14610,7 +14628,7 @@
         <v>350</v>
       </c>
       <c r="K282" t="n">
-        <v>8.333333333333332</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L282" t="n">
         <v>350.3</v>
@@ -14661,7 +14679,7 @@
         <v>350</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L283" t="n">
         <v>350.1</v>
@@ -14712,7 +14730,7 @@
         <v>351</v>
       </c>
       <c r="K284" t="n">
-        <v>0</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L284" t="n">
         <v>349.7</v>
@@ -14763,7 +14781,7 @@
         <v>352</v>
       </c>
       <c r="K285" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L285" t="n">
         <v>349.1</v>
@@ -14814,7 +14832,7 @@
         <v>352</v>
       </c>
       <c r="K286" t="n">
-        <v>-5.263157894736842</v>
+        <v>-100</v>
       </c>
       <c r="L286" t="n">
         <v>348.2</v>
@@ -14865,7 +14883,7 @@
         <v>355</v>
       </c>
       <c r="K287" t="n">
-        <v>4.761904761904762</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L287" t="n">
         <v>347.7</v>
@@ -14916,7 +14934,7 @@
         <v>358</v>
       </c>
       <c r="K288" t="n">
-        <v>-8.333333333333332</v>
+        <v>-40</v>
       </c>
       <c r="L288" t="n">
         <v>346.9</v>
@@ -14967,7 +14985,7 @@
         <v>359</v>
       </c>
       <c r="K289" t="n">
-        <v>-8.333333333333332</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L289" t="n">
         <v>346.4</v>
@@ -15018,7 +15036,7 @@
         <v>361</v>
       </c>
       <c r="K290" t="n">
-        <v>-15.38461538461539</v>
+        <v>-50</v>
       </c>
       <c r="L290" t="n">
         <v>345.7</v>
@@ -15069,7 +15087,7 @@
         <v>364</v>
       </c>
       <c r="K291" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L291" t="n">
         <v>345.4</v>
@@ -15120,7 +15138,7 @@
         <v>364</v>
       </c>
       <c r="K292" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L292" t="n">
         <v>345.2</v>
@@ -15171,7 +15189,7 @@
         <v>366</v>
       </c>
       <c r="K293" t="n">
-        <v>-21.42857142857143</v>
+        <v>-20</v>
       </c>
       <c r="L293" t="n">
         <v>344.8</v>
@@ -15222,7 +15240,7 @@
         <v>369</v>
       </c>
       <c r="K294" t="n">
-        <v>-13.33333333333333</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L294" t="n">
         <v>344.8</v>
@@ -15273,7 +15291,7 @@
         <v>370</v>
       </c>
       <c r="K295" t="n">
-        <v>-13.33333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L295" t="n">
         <v>345</v>
@@ -15324,7 +15342,7 @@
         <v>371</v>
       </c>
       <c r="K296" t="n">
-        <v>-21.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L296" t="n">
         <v>345.3</v>
@@ -15375,7 +15393,7 @@
         <v>373</v>
       </c>
       <c r="K297" t="n">
-        <v>-24.13793103448276</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L297" t="n">
         <v>345.1</v>
@@ -15426,7 +15444,7 @@
         <v>373</v>
       </c>
       <c r="K298" t="n">
-        <v>-24.13793103448276</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L298" t="n">
         <v>345.2</v>
@@ -15477,7 +15495,7 @@
         <v>376</v>
       </c>
       <c r="K299" t="n">
-        <v>-21.42857142857143</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L299" t="n">
         <v>345.1</v>
@@ -15528,7 +15546,7 @@
         <v>379</v>
       </c>
       <c r="K300" t="n">
-        <v>-9.67741935483871</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L300" t="n">
         <v>345.5</v>
@@ -15579,7 +15597,7 @@
         <v>379</v>
       </c>
       <c r="K301" t="n">
-        <v>-6.666666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L301" t="n">
         <v>345.6</v>
@@ -15630,7 +15648,7 @@
         <v>379</v>
       </c>
       <c r="K302" t="n">
-        <v>-3.448275862068965</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L302" t="n">
         <v>345.7</v>
@@ -15681,7 +15699,7 @@
         <v>380</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L303" t="n">
         <v>346.1</v>
@@ -15732,7 +15750,7 @@
         <v>383</v>
       </c>
       <c r="K304" t="n">
-        <v>-6.25</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L304" t="n">
         <v>345.9</v>
@@ -15783,7 +15801,7 @@
         <v>384</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L305" t="n">
         <v>345.7</v>
@@ -15834,7 +15852,7 @@
         <v>385</v>
       </c>
       <c r="K306" t="n">
-        <v>-3.03030303030303</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L306" t="n">
         <v>345.3</v>
@@ -15885,7 +15903,7 @@
         <v>387</v>
       </c>
       <c r="K307" t="n">
-        <v>-6.25</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>345.3</v>
@@ -15936,7 +15954,7 @@
         <v>389</v>
       </c>
       <c r="K308" t="n">
-        <v>-3.225806451612903</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L308" t="n">
         <v>345.1</v>
@@ -15987,7 +16005,7 @@
         <v>389</v>
       </c>
       <c r="K309" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L309" t="n">
         <v>345.2</v>
@@ -16038,7 +16056,7 @@
         <v>390</v>
       </c>
       <c r="K310" t="n">
-        <v>10.3448275862069</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L310" t="n">
         <v>345.1</v>
@@ -16089,7 +16107,7 @@
         <v>391</v>
       </c>
       <c r="K311" t="n">
-        <v>-3.703703703703703</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L311" t="n">
         <v>344.9</v>
@@ -16140,7 +16158,7 @@
         <v>392</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L312" t="n">
         <v>344.8</v>
@@ -16191,7 +16209,7 @@
         <v>392</v>
       </c>
       <c r="K313" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L313" t="n">
         <v>344.6</v>
@@ -16242,7 +16260,7 @@
         <v>392</v>
       </c>
       <c r="K314" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>344.7</v>
@@ -16293,7 +16311,7 @@
         <v>392</v>
       </c>
       <c r="K315" t="n">
-        <v>-9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L315" t="n">
         <v>344.7</v>
@@ -16344,7 +16362,7 @@
         <v>392</v>
       </c>
       <c r="K316" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L316" t="n">
         <v>344.8</v>
@@ -16395,7 +16413,7 @@
         <v>393</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L317" t="n">
         <v>344.8</v>
@@ -16446,7 +16464,7 @@
         <v>395</v>
       </c>
       <c r="K318" t="n">
-        <v>9.090909090909092</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L318" t="n">
         <v>345.2</v>
@@ -16497,7 +16515,7 @@
         <v>396</v>
       </c>
       <c r="K319" t="n">
-        <v>30</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L319" t="n">
         <v>345.7</v>
@@ -16548,7 +16566,7 @@
         <v>396</v>
       </c>
       <c r="K320" t="n">
-        <v>17.64705882352941</v>
+        <v>100</v>
       </c>
       <c r="L320" t="n">
         <v>346.1</v>
@@ -16599,7 +16617,7 @@
         <v>399</v>
       </c>
       <c r="K321" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L321" t="n">
         <v>346.9</v>
@@ -16650,7 +16668,7 @@
         <v>399</v>
       </c>
       <c r="K322" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L322" t="n">
         <v>347.6</v>
@@ -16701,7 +16719,7 @@
         <v>404</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L323" t="n">
         <v>347.8</v>
@@ -16752,7 +16770,7 @@
         <v>407</v>
       </c>
       <c r="K324" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L324" t="n">
         <v>348.3</v>
@@ -16803,7 +16821,7 @@
         <v>407</v>
       </c>
       <c r="K325" t="n">
-        <v>21.73913043478261</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L325" t="n">
         <v>348.8</v>
@@ -16854,7 +16872,7 @@
         <v>410</v>
       </c>
       <c r="K326" t="n">
-        <v>12</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L326" t="n">
         <v>349</v>
@@ -16905,7 +16923,7 @@
         <v>413</v>
       </c>
       <c r="K327" t="n">
-        <v>15.38461538461539</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L327" t="n">
         <v>349.4</v>
@@ -16956,7 +16974,7 @@
         <v>413</v>
       </c>
       <c r="K328" t="n">
-        <v>25</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L328" t="n">
         <v>349.6</v>
@@ -17007,7 +17025,7 @@
         <v>413</v>
       </c>
       <c r="K329" t="n">
-        <v>25</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L329" t="n">
         <v>349.7</v>
@@ -17058,7 +17076,7 @@
         <v>415</v>
       </c>
       <c r="K330" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L330" t="n">
         <v>350</v>
@@ -17109,7 +17127,7 @@
         <v>417</v>
       </c>
       <c r="K331" t="n">
-        <v>38.46153846153847</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L331" t="n">
         <v>350.2</v>
@@ -17160,7 +17178,7 @@
         <v>418</v>
       </c>
       <c r="K332" t="n">
-        <v>38.46153846153847</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L332" t="n">
         <v>350.5</v>
@@ -17211,7 +17229,7 @@
         <v>419</v>
       </c>
       <c r="K333" t="n">
-        <v>40.74074074074074</v>
+        <v>50</v>
       </c>
       <c r="L333" t="n">
         <v>351.4</v>
@@ -17262,7 +17280,7 @@
         <v>420</v>
       </c>
       <c r="K334" t="n">
-        <v>42.85714285714285</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L334" t="n">
         <v>352.1</v>
@@ -17313,7 +17331,7 @@
         <v>420</v>
       </c>
       <c r="K335" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L335" t="n">
         <v>352.8</v>
@@ -17364,7 +17382,7 @@
         <v>421</v>
       </c>
       <c r="K336" t="n">
-        <v>37.93103448275862</v>
+        <v>75</v>
       </c>
       <c r="L336" t="n">
         <v>353.7</v>
@@ -17415,7 +17433,7 @@
         <v>422</v>
       </c>
       <c r="K337" t="n">
-        <v>31.03448275862069</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L337" t="n">
         <v>354.2</v>
@@ -17466,7 +17484,7 @@
         <v>423</v>
       </c>
       <c r="K338" t="n">
-        <v>28.57142857142857</v>
+        <v>60</v>
       </c>
       <c r="L338" t="n">
         <v>354.8</v>
@@ -17517,7 +17535,7 @@
         <v>425</v>
       </c>
       <c r="K339" t="n">
-        <v>31.03448275862069</v>
+        <v>60</v>
       </c>
       <c r="L339" t="n">
         <v>355.6</v>
@@ -17568,7 +17586,7 @@
         <v>427</v>
       </c>
       <c r="K340" t="n">
-        <v>35.48387096774194</v>
+        <v>60</v>
       </c>
       <c r="L340" t="n">
         <v>356.4</v>
@@ -17619,7 +17637,7 @@
         <v>427</v>
       </c>
       <c r="K341" t="n">
-        <v>28.57142857142857</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L341" t="n">
         <v>357</v>
@@ -17670,7 +17688,7 @@
         <v>427</v>
       </c>
       <c r="K342" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L342" t="n">
         <v>357.5</v>
@@ -17721,7 +17739,7 @@
         <v>427</v>
       </c>
       <c r="K343" t="n">
-        <v>56.52173913043478</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L343" t="n">
         <v>357.9</v>
@@ -17772,7 +17790,7 @@
         <v>429</v>
       </c>
       <c r="K344" t="n">
-        <v>36.36363636363637</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L344" t="n">
         <v>358</v>
@@ -17823,7 +17841,7 @@
         <v>430</v>
       </c>
       <c r="K345" t="n">
-        <v>30.43478260869566</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L345" t="n">
         <v>358</v>
@@ -17874,7 +17892,7 @@
         <v>431</v>
       </c>
       <c r="K346" t="n">
-        <v>42.85714285714285</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L346" t="n">
         <v>358</v>
@@ -17925,7 +17943,7 @@
         <v>432</v>
       </c>
       <c r="K347" t="n">
-        <v>36.84210526315789</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L347" t="n">
         <v>358.2</v>
@@ -17976,7 +17994,7 @@
         <v>434</v>
       </c>
       <c r="K348" t="n">
-        <v>23.80952380952381</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L348" t="n">
         <v>358.1</v>
@@ -18027,7 +18045,7 @@
         <v>437</v>
       </c>
       <c r="K349" t="n">
-        <v>8.333333333333332</v>
+        <v>-80</v>
       </c>
       <c r="L349" t="n">
         <v>357.5</v>
@@ -18078,7 +18096,7 @@
         <v>439</v>
       </c>
       <c r="K350" t="n">
-        <v>8.333333333333332</v>
+        <v>-50</v>
       </c>
       <c r="L350" t="n">
         <v>356.9</v>
@@ -18129,7 +18147,7 @@
         <v>441</v>
       </c>
       <c r="K351" t="n">
-        <v>-8.333333333333332</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L351" t="n">
         <v>356.1</v>
@@ -18180,7 +18198,7 @@
         <v>441</v>
       </c>
       <c r="K352" t="n">
-        <v>-13.04347826086956</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L352" t="n">
         <v>355.3</v>
@@ -18231,7 +18249,7 @@
         <v>441</v>
       </c>
       <c r="K353" t="n">
-        <v>-18.18181818181818</v>
+        <v>-50</v>
       </c>
       <c r="L353" t="n">
         <v>354.5</v>
@@ -18282,7 +18300,7 @@
         <v>441</v>
       </c>
       <c r="K354" t="n">
-        <v>-23.80952380952381</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L354" t="n">
         <v>353.9</v>
@@ -18333,7 +18351,7 @@
         <v>441</v>
       </c>
       <c r="K355" t="n">
-        <v>-23.80952380952381</v>
+        <v>-40</v>
       </c>
       <c r="L355" t="n">
         <v>353.4</v>
@@ -18384,7 +18402,7 @@
         <v>441</v>
       </c>
       <c r="K356" t="n">
-        <v>-20</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L356" t="n">
         <v>353</v>
@@ -18435,7 +18453,7 @@
         <v>441</v>
       </c>
       <c r="K357" t="n">
-        <v>-15.78947368421053</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L357" t="n">
         <v>352.5</v>
@@ -18486,7 +18504,7 @@
         <v>441</v>
       </c>
       <c r="K358" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>352.2</v>
@@ -18537,7 +18555,7 @@
         <v>441</v>
       </c>
       <c r="K359" t="n">
-        <v>-37.5</v>
+        <v>-100</v>
       </c>
       <c r="L359" t="n">
         <v>352.2</v>
@@ -18587,9 +18605,7 @@
       <c r="J360" t="n">
         <v>441</v>
       </c>
-      <c r="K360" t="n">
-        <v>-57.14285714285714</v>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>352</v>
       </c>
@@ -18638,9 +18654,7 @@
       <c r="J361" t="n">
         <v>441</v>
       </c>
-      <c r="K361" t="n">
-        <v>-57.14285714285714</v>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>352</v>
       </c>
@@ -18689,9 +18703,7 @@
       <c r="J362" t="n">
         <v>441</v>
       </c>
-      <c r="K362" t="n">
-        <v>-57.14285714285714</v>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>352</v>
       </c>
@@ -18741,7 +18753,7 @@
         <v>443</v>
       </c>
       <c r="K363" t="n">
-        <v>-37.5</v>
+        <v>100</v>
       </c>
       <c r="L363" t="n">
         <v>352.2</v>
@@ -18792,7 +18804,7 @@
         <v>445</v>
       </c>
       <c r="K364" t="n">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="L364" t="n">
         <v>352.2</v>
@@ -18843,7 +18855,7 @@
         <v>447</v>
       </c>
       <c r="K365" t="n">
-        <v>-41.17647058823529</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L365" t="n">
         <v>352</v>
@@ -18894,7 +18906,7 @@
         <v>447</v>
       </c>
       <c r="K366" t="n">
-        <v>-37.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L366" t="n">
         <v>351.8</v>
@@ -18945,7 +18957,7 @@
         <v>448</v>
       </c>
       <c r="K367" t="n">
-        <v>-37.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L367" t="n">
         <v>351.7</v>
@@ -18996,7 +19008,7 @@
         <v>448</v>
       </c>
       <c r="K368" t="n">
-        <v>-28.57142857142857</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L368" t="n">
         <v>351.6</v>
@@ -19047,7 +19059,7 @@
         <v>450</v>
       </c>
       <c r="K369" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L369" t="n">
         <v>351.7</v>
@@ -19098,7 +19110,7 @@
         <v>451</v>
       </c>
       <c r="K370" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>351.7</v>
@@ -19200,7 +19212,7 @@
         <v>456</v>
       </c>
       <c r="K372" t="n">
-        <v>20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L372" t="n">
         <v>351.9</v>
@@ -19251,7 +19263,7 @@
         <v>456</v>
       </c>
       <c r="K373" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L373" t="n">
         <v>352</v>
@@ -19302,7 +19314,7 @@
         <v>456</v>
       </c>
       <c r="K374" t="n">
-        <v>20</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L374" t="n">
         <v>352.3</v>
@@ -19353,7 +19365,7 @@
         <v>457</v>
       </c>
       <c r="K375" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L375" t="n">
         <v>352.9</v>
@@ -19404,7 +19416,7 @@
         <v>458</v>
       </c>
       <c r="K376" t="n">
-        <v>17.64705882352941</v>
+        <v>40</v>
       </c>
       <c r="L376" t="n">
         <v>353.4</v>
@@ -19455,7 +19467,7 @@
         <v>461</v>
       </c>
       <c r="K377" t="n">
-        <v>30</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L377" t="n">
         <v>354.1</v>
@@ -19506,7 +19518,7 @@
         <v>462</v>
       </c>
       <c r="K378" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L378" t="n">
         <v>354.9</v>
@@ -19557,7 +19569,7 @@
         <v>463</v>
       </c>
       <c r="K379" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L379" t="n">
         <v>355.4</v>
@@ -19608,7 +19620,7 @@
         <v>466</v>
       </c>
       <c r="K380" t="n">
-        <v>12</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L380" t="n">
         <v>355.7</v>
@@ -19659,7 +19671,7 @@
         <v>467</v>
       </c>
       <c r="K381" t="n">
-        <v>15.38461538461539</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L381" t="n">
         <v>356.2</v>
@@ -19710,7 +19722,7 @@
         <v>467</v>
       </c>
       <c r="K382" t="n">
-        <v>15.38461538461539</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L382" t="n">
         <v>356.3</v>
@@ -19761,7 +19773,7 @@
         <v>470</v>
       </c>
       <c r="K383" t="n">
-        <v>18.51851851851852</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L383" t="n">
         <v>356.7</v>
@@ -19812,7 +19824,7 @@
         <v>471</v>
       </c>
       <c r="K384" t="n">
-        <v>23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L384" t="n">
         <v>357</v>
@@ -19863,7 +19875,7 @@
         <v>474</v>
       </c>
       <c r="K385" t="n">
-        <v>18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L385" t="n">
         <v>356.9</v>
@@ -19914,7 +19926,7 @@
         <v>477</v>
       </c>
       <c r="K386" t="n">
-        <v>26.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>357.2</v>
@@ -19965,7 +19977,7 @@
         <v>479</v>
       </c>
       <c r="K387" t="n">
-        <v>16.12903225806452</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L387" t="n">
         <v>357</v>
@@ -20016,7 +20028,7 @@
         <v>479</v>
       </c>
       <c r="K388" t="n">
-        <v>16.12903225806452</v>
+        <v>-12.5</v>
       </c>
       <c r="L388" t="n">
         <v>356.7</v>
@@ -20067,7 +20079,7 @@
         <v>479</v>
       </c>
       <c r="K389" t="n">
-        <v>10.3448275862069</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L389" t="n">
         <v>356.5</v>
@@ -20118,7 +20130,7 @@
         <v>479</v>
       </c>
       <c r="K390" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>356.6</v>
@@ -20169,7 +20181,7 @@
         <v>479</v>
       </c>
       <c r="K391" t="n">
-        <v>18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L391" t="n">
         <v>356.6</v>
@@ -20220,7 +20232,7 @@
         <v>480</v>
       </c>
       <c r="K392" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L392" t="n">
         <v>356.5</v>
@@ -20271,7 +20283,7 @@
         <v>480</v>
       </c>
       <c r="K393" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L393" t="n">
         <v>356.1</v>
@@ -20373,7 +20385,7 @@
         <v>480</v>
       </c>
       <c r="K395" t="n">
-        <v>-4.347826086956522</v>
+        <v>-100</v>
       </c>
       <c r="L395" t="n">
         <v>355.8</v>
@@ -20424,7 +20436,7 @@
         <v>480</v>
       </c>
       <c r="K396" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L396" t="n">
         <v>355.5</v>
@@ -20475,7 +20487,7 @@
         <v>480</v>
       </c>
       <c r="K397" t="n">
-        <v>-15.78947368421053</v>
+        <v>-100</v>
       </c>
       <c r="L397" t="n">
         <v>355.4</v>
@@ -20526,7 +20538,7 @@
         <v>480</v>
       </c>
       <c r="K398" t="n">
-        <v>-22.22222222222222</v>
+        <v>-100</v>
       </c>
       <c r="L398" t="n">
         <v>355.3</v>
@@ -20577,7 +20589,7 @@
         <v>482</v>
       </c>
       <c r="K399" t="n">
-        <v>-5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L399" t="n">
         <v>355.4</v>
@@ -20628,7 +20640,7 @@
         <v>482</v>
       </c>
       <c r="K400" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L400" t="n">
         <v>355.5</v>
@@ -20679,7 +20691,7 @@
         <v>483</v>
       </c>
       <c r="K401" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L401" t="n">
         <v>355.5</v>
@@ -20730,7 +20742,7 @@
         <v>483</v>
       </c>
       <c r="K402" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L402" t="n">
         <v>355.6</v>
@@ -20781,7 +20793,7 @@
         <v>485</v>
       </c>
       <c r="K403" t="n">
-        <v>-6.666666666666667</v>
+        <v>60</v>
       </c>
       <c r="L403" t="n">
         <v>355.9</v>
@@ -20832,7 +20844,7 @@
         <v>485</v>
       </c>
       <c r="K404" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L404" t="n">
         <v>356.2</v>
@@ -20883,7 +20895,7 @@
         <v>486</v>
       </c>
       <c r="K405" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L405" t="n">
         <v>356.6</v>
@@ -20934,7 +20946,7 @@
         <v>487</v>
       </c>
       <c r="K406" t="n">
-        <v>20</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L406" t="n">
         <v>357.1</v>
@@ -20985,7 +20997,7 @@
         <v>487</v>
       </c>
       <c r="K407" t="n">
-        <v>50</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L407" t="n">
         <v>357.6</v>
@@ -21036,7 +21048,7 @@
         <v>488</v>
       </c>
       <c r="K408" t="n">
-        <v>55.55555555555556</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L408" t="n">
         <v>358.2</v>
@@ -21087,7 +21099,7 @@
         <v>488</v>
       </c>
       <c r="K409" t="n">
-        <v>55.55555555555556</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L409" t="n">
         <v>358.6</v>
@@ -21138,7 +21150,7 @@
         <v>492</v>
       </c>
       <c r="K410" t="n">
-        <v>69.23076923076923</v>
+        <v>100</v>
       </c>
       <c r="L410" t="n">
         <v>359.4</v>
@@ -21189,7 +21201,7 @@
         <v>493</v>
       </c>
       <c r="K411" t="n">
-        <v>57.14285714285714</v>
+        <v>80</v>
       </c>
       <c r="L411" t="n">
         <v>360.2</v>
@@ -21240,7 +21252,7 @@
         <v>493</v>
       </c>
       <c r="K412" t="n">
-        <v>69.23076923076923</v>
+        <v>75</v>
       </c>
       <c r="L412" t="n">
         <v>361</v>
@@ -21291,7 +21303,7 @@
         <v>494</v>
       </c>
       <c r="K413" t="n">
-        <v>71.42857142857143</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L413" t="n">
         <v>361.7</v>
@@ -21342,7 +21354,7 @@
         <v>494</v>
       </c>
       <c r="K414" t="n">
-        <v>71.42857142857143</v>
+        <v>75</v>
       </c>
       <c r="L414" t="n">
         <v>362.4</v>
@@ -21444,7 +21456,7 @@
         <v>495</v>
       </c>
       <c r="K416" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L416" t="n">
         <v>363.4</v>
@@ -21495,7 +21507,7 @@
         <v>496</v>
       </c>
       <c r="K417" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L417" t="n">
         <v>363.7</v>
@@ -21546,7 +21558,7 @@
         <v>496</v>
       </c>
       <c r="K418" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L418" t="n">
         <v>363.9</v>
@@ -21597,7 +21609,7 @@
         <v>497</v>
       </c>
       <c r="K419" t="n">
-        <v>46.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L419" t="n">
         <v>364.2</v>
@@ -21648,7 +21660,7 @@
         <v>497</v>
       </c>
       <c r="K420" t="n">
-        <v>46.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>364.1</v>
@@ -21699,7 +21711,7 @@
         <v>497</v>
       </c>
       <c r="K421" t="n">
-        <v>57.14285714285714</v>
+        <v>0</v>
       </c>
       <c r="L421" t="n">
         <v>364.1</v>
@@ -21750,7 +21762,7 @@
         <v>499</v>
       </c>
       <c r="K422" t="n">
-        <v>62.5</v>
+        <v>20</v>
       </c>
       <c r="L422" t="n">
         <v>364.3</v>
@@ -21801,7 +21813,7 @@
         <v>500</v>
       </c>
       <c r="K423" t="n">
-        <v>46.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L423" t="n">
         <v>364.3</v>
@@ -21852,7 +21864,7 @@
         <v>502</v>
       </c>
       <c r="K424" t="n">
-        <v>52.94117647058824</v>
+        <v>25</v>
       </c>
       <c r="L424" t="n">
         <v>364.5</v>
@@ -21903,7 +21915,7 @@
         <v>503</v>
       </c>
       <c r="K425" t="n">
-        <v>41.17647058823529</v>
+        <v>25</v>
       </c>
       <c r="L425" t="n">
         <v>364.6</v>
@@ -21954,7 +21966,7 @@
         <v>503</v>
       </c>
       <c r="K426" t="n">
-        <v>37.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L426" t="n">
         <v>364.8</v>
@@ -22005,7 +22017,7 @@
         <v>505</v>
       </c>
       <c r="K427" t="n">
-        <v>22.22222222222222</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L427" t="n">
         <v>364.9</v>
@@ -22056,7 +22068,7 @@
         <v>506</v>
       </c>
       <c r="K428" t="n">
-        <v>22.22222222222222</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L428" t="n">
         <v>365.1</v>
@@ -22107,7 +22119,7 @@
         <v>508</v>
       </c>
       <c r="K429" t="n">
-        <v>30</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L429" t="n">
         <v>365.4</v>
@@ -22158,7 +22170,7 @@
         <v>509</v>
       </c>
       <c r="K430" t="n">
-        <v>5.88235294117647</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L430" t="n">
         <v>365.6</v>
@@ -22209,7 +22221,7 @@
         <v>510</v>
       </c>
       <c r="K431" t="n">
-        <v>5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L431" t="n">
         <v>365.7</v>
@@ -22260,7 +22272,7 @@
         <v>510</v>
       </c>
       <c r="K432" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L432" t="n">
         <v>365.6</v>
@@ -22311,7 +22323,7 @@
         <v>512</v>
       </c>
       <c r="K433" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L433" t="n">
         <v>365.8</v>
@@ -22413,7 +22425,7 @@
         <v>513</v>
       </c>
       <c r="K435" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L435" t="n">
         <v>366</v>
@@ -22464,7 +22476,7 @@
         <v>514</v>
       </c>
       <c r="K436" t="n">
-        <v>26.31578947368421</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L436" t="n">
         <v>366.3</v>
@@ -22515,7 +22527,7 @@
         <v>515</v>
       </c>
       <c r="K437" t="n">
-        <v>36.84210526315789</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L437" t="n">
         <v>366.9</v>
@@ -22566,7 +22578,7 @@
         <v>517</v>
       </c>
       <c r="K438" t="n">
-        <v>42.85714285714285</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L438" t="n">
         <v>367.6</v>
@@ -22617,7 +22629,7 @@
         <v>521</v>
       </c>
       <c r="K439" t="n">
-        <v>50</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L439" t="n">
         <v>368.5</v>
@@ -22668,7 +22680,7 @@
         <v>522</v>
       </c>
       <c r="K440" t="n">
-        <v>44</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L440" t="n">
         <v>369.4</v>
@@ -22719,7 +22731,7 @@
         <v>526</v>
       </c>
       <c r="K441" t="n">
-        <v>51.72413793103448</v>
+        <v>87.5</v>
       </c>
       <c r="L441" t="n">
         <v>370.8</v>
@@ -22770,7 +22782,7 @@
         <v>527</v>
       </c>
       <c r="K442" t="n">
-        <v>50</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L442" t="n">
         <v>372.3</v>
@@ -22821,7 +22833,7 @@
         <v>529</v>
       </c>
       <c r="K443" t="n">
-        <v>44.82758620689656</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L443" t="n">
         <v>373.4</v>
@@ -22872,7 +22884,7 @@
         <v>530</v>
       </c>
       <c r="K444" t="n">
-        <v>35.71428571428572</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L444" t="n">
         <v>374.4</v>
@@ -22923,7 +22935,7 @@
         <v>530</v>
       </c>
       <c r="K445" t="n">
-        <v>40.74074074074074</v>
+        <v>50</v>
       </c>
       <c r="L445" t="n">
         <v>375.3</v>
@@ -22974,7 +22986,7 @@
         <v>531</v>
       </c>
       <c r="K446" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="L446" t="n">
         <v>376.2</v>
@@ -23025,7 +23037,7 @@
         <v>536</v>
       </c>
       <c r="K447" t="n">
-        <v>29.03225806451613</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L447" t="n">
         <v>376.5</v>
@@ -23076,7 +23088,7 @@
         <v>536</v>
       </c>
       <c r="K448" t="n">
-        <v>26.66666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L448" t="n">
         <v>376.6</v>
@@ -23127,7 +23139,7 @@
         <v>536</v>
       </c>
       <c r="K449" t="n">
-        <v>21.42857142857143</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L449" t="n">
         <v>376.3</v>
@@ -23178,7 +23190,7 @@
         <v>537</v>
       </c>
       <c r="K450" t="n">
-        <v>21.42857142857143</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L450" t="n">
         <v>376</v>
@@ -23229,7 +23241,7 @@
         <v>541</v>
       </c>
       <c r="K451" t="n">
-        <v>9.67741935483871</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L451" t="n">
         <v>374.9</v>
@@ -23280,7 +23292,7 @@
         <v>542</v>
       </c>
       <c r="K452" t="n">
-        <v>12.5</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L452" t="n">
         <v>373.8</v>
@@ -23331,7 +23343,7 @@
         <v>543</v>
       </c>
       <c r="K453" t="n">
-        <v>3.225806451612903</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L453" t="n">
         <v>372.8</v>
@@ -23382,7 +23394,7 @@
         <v>543</v>
       </c>
       <c r="K454" t="n">
-        <v>3.225806451612903</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L454" t="n">
         <v>371.9</v>
@@ -23433,7 +23445,7 @@
         <v>548</v>
       </c>
       <c r="K455" t="n">
-        <v>-14.28571428571428</v>
+        <v>-88.23529411764706</v>
       </c>
       <c r="L455" t="n">
         <v>370.5</v>
@@ -23484,7 +23496,7 @@
         <v>548</v>
       </c>
       <c r="K456" t="n">
-        <v>-17.64705882352941</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L456" t="n">
         <v>369</v>
@@ -23535,7 +23547,7 @@
         <v>548</v>
       </c>
       <c r="K457" t="n">
-        <v>-21.21212121212121</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L457" t="n">
         <v>368</v>
@@ -23586,7 +23598,7 @@
         <v>550</v>
       </c>
       <c r="K458" t="n">
-        <v>-21.21212121212121</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L458" t="n">
         <v>367.2</v>
@@ -23637,7 +23649,7 @@
         <v>550</v>
       </c>
       <c r="K459" t="n">
-        <v>-37.93103448275862</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L459" t="n">
         <v>366.4</v>
@@ -23688,7 +23700,7 @@
         <v>552</v>
       </c>
       <c r="K460" t="n">
-        <v>-26.66666666666667</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L460" t="n">
         <v>365.9</v>
@@ -23739,7 +23751,7 @@
         <v>554</v>
       </c>
       <c r="K461" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L461" t="n">
         <v>365.6</v>
@@ -23790,7 +23802,7 @@
         <v>554</v>
       </c>
       <c r="K462" t="n">
-        <v>-55.55555555555556</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L462" t="n">
         <v>365.2</v>
@@ -23841,7 +23853,7 @@
         <v>556</v>
       </c>
       <c r="K463" t="n">
-        <v>-40.74074074074074</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L463" t="n">
         <v>365.1</v>
@@ -23892,7 +23904,7 @@
         <v>557</v>
       </c>
       <c r="K464" t="n">
-        <v>-33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L464" t="n">
         <v>365.1</v>
@@ -23943,7 +23955,7 @@
         <v>557</v>
       </c>
       <c r="K465" t="n">
-        <v>-33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L465" t="n">
         <v>365.6</v>
@@ -23994,7 +24006,7 @@
         <v>557</v>
       </c>
       <c r="K466" t="n">
-        <v>-38.46153846153847</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L466" t="n">
         <v>366.1</v>
@@ -24045,7 +24057,7 @@
         <v>558</v>
       </c>
       <c r="K467" t="n">
-        <v>-18.18181818181818</v>
+        <v>50</v>
       </c>
       <c r="L467" t="n">
         <v>366.7</v>
@@ -24096,7 +24108,7 @@
         <v>561</v>
       </c>
       <c r="K468" t="n">
-        <v>-28</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L468" t="n">
         <v>366.8</v>
@@ -24147,7 +24159,7 @@
         <v>563</v>
       </c>
       <c r="K469" t="n">
-        <v>-33.33333333333333</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L469" t="n">
         <v>366.7</v>
@@ -24198,7 +24210,7 @@
         <v>563</v>
       </c>
       <c r="K470" t="n">
-        <v>-30.76923076923077</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L470" t="n">
         <v>366.4</v>
@@ -24249,7 +24261,7 @@
         <v>564</v>
       </c>
       <c r="K471" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
         <v>366.4</v>
@@ -24300,7 +24312,7 @@
         <v>565</v>
       </c>
       <c r="K472" t="n">
-        <v>-21.73913043478261</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L472" t="n">
         <v>366.3</v>
@@ -24351,7 +24363,7 @@
         <v>566</v>
       </c>
       <c r="K473" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L473" t="n">
         <v>366.1</v>
@@ -24402,7 +24414,7 @@
         <v>566</v>
       </c>
       <c r="K474" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L474" t="n">
         <v>365.8</v>
@@ -24453,7 +24465,7 @@
         <v>568</v>
       </c>
       <c r="K475" t="n">
-        <v>0</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L475" t="n">
         <v>365.3</v>
@@ -24504,7 +24516,7 @@
         <v>568</v>
       </c>
       <c r="K476" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L476" t="n">
         <v>364.8</v>
@@ -24555,7 +24567,7 @@
         <v>569</v>
       </c>
       <c r="K477" t="n">
-        <v>4.761904761904762</v>
+        <v>-25</v>
       </c>
       <c r="L477" t="n">
         <v>364.3</v>
@@ -24606,7 +24618,7 @@
         <v>570</v>
       </c>
       <c r="K478" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L478" t="n">
         <v>364</v>
@@ -24657,7 +24669,7 @@
         <v>571</v>
       </c>
       <c r="K479" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L479" t="n">
         <v>363.8</v>
@@ -24708,7 +24720,7 @@
         <v>572</v>
       </c>
       <c r="K480" t="n">
-        <v>-30</v>
+        <v>-50</v>
       </c>
       <c r="L480" t="n">
         <v>363.5</v>
@@ -24759,7 +24771,7 @@
         <v>573</v>
       </c>
       <c r="K481" t="n">
-        <v>-15.78947368421053</v>
+        <v>-25</v>
       </c>
       <c r="L481" t="n">
         <v>363.2</v>
@@ -24810,7 +24822,7 @@
         <v>574</v>
       </c>
       <c r="K482" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="L482" t="n">
         <v>363.1</v>
@@ -24861,7 +24873,7 @@
         <v>574</v>
       </c>
       <c r="K483" t="n">
-        <v>-22.22222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L483" t="n">
         <v>362.9</v>
@@ -24912,7 +24924,7 @@
         <v>574</v>
       </c>
       <c r="K484" t="n">
-        <v>-29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L484" t="n">
         <v>362.7</v>
@@ -24963,7 +24975,7 @@
         <v>574</v>
       </c>
       <c r="K485" t="n">
-        <v>-29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L485" t="n">
         <v>362.7</v>
@@ -25014,7 +25026,7 @@
         <v>575</v>
       </c>
       <c r="K486" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L486" t="n">
         <v>362.8</v>
@@ -25065,7 +25077,7 @@
         <v>575</v>
       </c>
       <c r="K487" t="n">
-        <v>-29.41176470588236</v>
+        <v>20</v>
       </c>
       <c r="L487" t="n">
         <v>362.8</v>
@@ -25116,7 +25128,7 @@
         <v>576</v>
       </c>
       <c r="K488" t="n">
-        <v>-6.666666666666667</v>
+        <v>60</v>
       </c>
       <c r="L488" t="n">
         <v>363</v>
@@ -25167,7 +25179,7 @@
         <v>577</v>
       </c>
       <c r="K489" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L489" t="n">
         <v>363.2</v>
@@ -25218,7 +25230,7 @@
         <v>578</v>
       </c>
       <c r="K490" t="n">
-        <v>6.666666666666667</v>
+        <v>60</v>
       </c>
       <c r="L490" t="n">
         <v>363.6</v>
@@ -25269,7 +25281,7 @@
         <v>579</v>
       </c>
       <c r="K491" t="n">
-        <v>6.666666666666667</v>
+        <v>60</v>
       </c>
       <c r="L491" t="n">
         <v>364</v>
@@ -25320,7 +25332,7 @@
         <v>579</v>
       </c>
       <c r="K492" t="n">
-        <v>14.28571428571428</v>
+        <v>60</v>
       </c>
       <c r="L492" t="n">
         <v>364.3</v>
@@ -25371,7 +25383,7 @@
         <v>580</v>
       </c>
       <c r="K493" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L493" t="n">
         <v>364.5</v>
@@ -25422,7 +25434,7 @@
         <v>583</v>
       </c>
       <c r="K494" t="n">
-        <v>17.64705882352941</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L494" t="n">
         <v>365</v>
@@ -25473,7 +25485,7 @@
         <v>583</v>
       </c>
       <c r="K495" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L495" t="n">
         <v>365.5</v>
@@ -25524,7 +25536,7 @@
         <v>583</v>
       </c>
       <c r="K496" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L496" t="n">
         <v>365.9</v>
@@ -25575,7 +25587,7 @@
         <v>585</v>
       </c>
       <c r="K497" t="n">
-        <v>37.5</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L497" t="n">
         <v>366.5</v>
@@ -25626,7 +25638,7 @@
         <v>585</v>
       </c>
       <c r="K498" t="n">
-        <v>46.66666666666666</v>
+        <v>75</v>
       </c>
       <c r="L498" t="n">
         <v>367</v>
@@ -25677,7 +25689,7 @@
         <v>586</v>
       </c>
       <c r="K499" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L499" t="n">
         <v>367.7</v>
@@ -25728,7 +25740,7 @@
         <v>587</v>
       </c>
       <c r="K500" t="n">
-        <v>73.33333333333333</v>
+        <v>75</v>
       </c>
       <c r="L500" t="n">
         <v>368.4</v>
@@ -25779,7 +25791,7 @@
         <v>587</v>
       </c>
       <c r="K501" t="n">
-        <v>71.42857142857143</v>
+        <v>75</v>
       </c>
       <c r="L501" t="n">
         <v>369</v>
@@ -25830,7 +25842,7 @@
         <v>588</v>
       </c>
       <c r="K502" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L502" t="n">
         <v>369.7</v>
@@ -25881,7 +25893,7 @@
         <v>591</v>
       </c>
       <c r="K503" t="n">
-        <v>76.47058823529412</v>
+        <v>100</v>
       </c>
       <c r="L503" t="n">
         <v>370.8</v>
@@ -25932,7 +25944,7 @@
         <v>592</v>
       </c>
       <c r="K504" t="n">
-        <v>66.66666666666666</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L504" t="n">
         <v>371.5</v>
@@ -25983,7 +25995,7 @@
         <v>596</v>
       </c>
       <c r="K505" t="n">
-        <v>72.72727272727273</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L505" t="n">
         <v>372.6</v>
@@ -26034,7 +26046,7 @@
         <v>600</v>
       </c>
       <c r="K506" t="n">
-        <v>44</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L506" t="n">
         <v>373.3</v>
@@ -26085,7 +26097,7 @@
         <v>602</v>
       </c>
       <c r="K507" t="n">
-        <v>48.14814814814815</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L507" t="n">
         <v>374</v>
@@ -26136,7 +26148,7 @@
         <v>606</v>
       </c>
       <c r="K508" t="n">
-        <v>26.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="L508" t="n">
         <v>374.3</v>
@@ -26187,7 +26199,7 @@
         <v>608</v>
       </c>
       <c r="K509" t="n">
-        <v>22.58064516129032</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L509" t="n">
         <v>374.3</v>
@@ -26238,7 +26250,7 @@
         <v>609</v>
       </c>
       <c r="K510" t="n">
-        <v>22.58064516129032</v>
+        <v>0</v>
       </c>
       <c r="L510" t="n">
         <v>374.3</v>
@@ -26289,7 +26301,7 @@
         <v>609</v>
       </c>
       <c r="K511" t="n">
-        <v>20</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L511" t="n">
         <v>374.3</v>
@@ -26340,7 +26352,7 @@
         <v>611</v>
       </c>
       <c r="K512" t="n">
-        <v>25</v>
+        <v>-10</v>
       </c>
       <c r="L512" t="n">
         <v>374.4</v>
@@ -26391,7 +26403,7 @@
         <v>613</v>
       </c>
       <c r="K513" t="n">
-        <v>21.21212121212121</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L513" t="n">
         <v>374</v>
@@ -26442,7 +26454,7 @@
         <v>615</v>
       </c>
       <c r="K514" t="n">
-        <v>18.75</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L514" t="n">
         <v>373.9</v>
@@ -26493,7 +26505,7 @@
         <v>616</v>
       </c>
       <c r="K515" t="n">
-        <v>15.15151515151515</v>
+        <v>-12.5</v>
       </c>
       <c r="L515" t="n">
         <v>373.3</v>
@@ -26544,7 +26556,7 @@
         <v>619</v>
       </c>
       <c r="K516" t="n">
-        <v>22.22222222222222</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L516" t="n">
         <v>373.4</v>
@@ -26595,7 +26607,7 @@
         <v>619</v>
       </c>
       <c r="K517" t="n">
-        <v>17.64705882352941</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L517" t="n">
         <v>373.3</v>
@@ -26646,7 +26658,7 @@
         <v>622</v>
       </c>
       <c r="K518" t="n">
-        <v>24.32432432432433</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L518" t="n">
         <v>373.9</v>
@@ -26697,7 +26709,7 @@
         <v>622</v>
       </c>
       <c r="K519" t="n">
-        <v>22.22222222222222</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L519" t="n">
         <v>374.7</v>
@@ -26748,7 +26760,7 @@
         <v>624</v>
       </c>
       <c r="K520" t="n">
-        <v>24.32432432432433</v>
+        <v>60</v>
       </c>
       <c r="L520" t="n">
         <v>375.6</v>
@@ -26799,7 +26811,7 @@
         <v>626</v>
       </c>
       <c r="K521" t="n">
-        <v>28.2051282051282</v>
+        <v>60</v>
       </c>
       <c r="L521" t="n">
         <v>376.7</v>
@@ -26850,7 +26862,7 @@
         <v>628</v>
       </c>
       <c r="K522" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L522" t="n">
         <v>377.4</v>
@@ -26901,7 +26913,7 @@
         <v>630</v>
       </c>
       <c r="K523" t="n">
-        <v>17.94871794871795</v>
+        <v>60</v>
       </c>
       <c r="L523" t="n">
         <v>378.5</v>
@@ -26952,7 +26964,7 @@
         <v>632</v>
       </c>
       <c r="K524" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L524" t="n">
         <v>379.6</v>
@@ -27003,7 +27015,7 @@
         <v>633</v>
       </c>
       <c r="K525" t="n">
-        <v>13.51351351351351</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L525" t="n">
         <v>380.7</v>
@@ -27054,7 +27066,7 @@
         <v>634</v>
       </c>
       <c r="K526" t="n">
-        <v>23.52941176470588</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L526" t="n">
         <v>381.4</v>
@@ -27105,7 +27117,7 @@
         <v>636</v>
       </c>
       <c r="K527" t="n">
-        <v>23.52941176470588</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L527" t="n">
         <v>382.3</v>
@@ -27156,7 +27168,7 @@
         <v>637</v>
       </c>
       <c r="K528" t="n">
-        <v>41.93548387096774</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L528" t="n">
         <v>383</v>
@@ -27207,7 +27219,7 @@
         <v>638</v>
       </c>
       <c r="K529" t="n">
-        <v>53.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L529" t="n">
         <v>383.8</v>
@@ -27258,7 +27270,7 @@
         <v>640</v>
       </c>
       <c r="K530" t="n">
-        <v>41.93548387096774</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L530" t="n">
         <v>384.2</v>
@@ -27309,7 +27321,7 @@
         <v>645</v>
       </c>
       <c r="K531" t="n">
-        <v>22.22222222222222</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L531" t="n">
         <v>383.9</v>
@@ -27360,7 +27372,7 @@
         <v>648</v>
       </c>
       <c r="K532" t="n">
-        <v>8.108108108108109</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L532" t="n">
         <v>383.5</v>
@@ -27411,7 +27423,7 @@
         <v>651</v>
       </c>
       <c r="K533" t="n">
-        <v>21.05263157894737</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L533" t="n">
         <v>383.2</v>
@@ -27462,7 +27474,7 @@
         <v>654</v>
       </c>
       <c r="K534" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L534" t="n">
         <v>382.4</v>
@@ -27513,7 +27525,7 @@
         <v>655</v>
       </c>
       <c r="K535" t="n">
-        <v>12.82051282051282</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L535" t="n">
         <v>381.8</v>
@@ -27564,7 +27576,7 @@
         <v>657</v>
       </c>
       <c r="K536" t="n">
-        <v>10.52631578947368</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L536" t="n">
         <v>381.5</v>
@@ -27615,7 +27627,7 @@
         <v>659</v>
       </c>
       <c r="K537" t="n">
-        <v>15</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L537" t="n">
         <v>381.2</v>
@@ -27666,7 +27678,7 @@
         <v>661</v>
       </c>
       <c r="K538" t="n">
-        <v>2.564102564102564</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L538" t="n">
         <v>380.6</v>
@@ -27717,7 +27729,7 @@
         <v>664</v>
       </c>
       <c r="K539" t="n">
-        <v>-4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L539" t="n">
         <v>379.6</v>
@@ -27768,7 +27780,7 @@
         <v>666</v>
       </c>
       <c r="K540" t="n">
-        <v>-14.28571428571428</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L540" t="n">
         <v>378.6</v>
@@ -27819,7 +27831,7 @@
         <v>667</v>
       </c>
       <c r="K541" t="n">
-        <v>-17.07317073170732</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L541" t="n">
         <v>378.2</v>

--- a/BackTest/2019-10-14 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-14 BackTest ZRX.xlsx
@@ -451,20 +451,14 @@
         <v>337.3666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>354</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>338.0333333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>354</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -540,11 +528,7 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -579,11 +563,7 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -618,11 +598,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -657,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -696,11 +668,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -735,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -774,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -813,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -852,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -891,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -930,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -969,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1043,15 +979,11 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1086,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1121,15 +1049,11 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1160,15 +1084,11 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1203,12 +1123,10 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1271,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1306,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1341,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1376,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2178,20 +2096,14 @@
         <v>355.8166666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>341</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2219,20 +2131,14 @@
         <v>355.7333333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>342</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2260,20 +2166,14 @@
         <v>355.6333333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>340</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2307,14 +2207,12 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>340</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="K52" t="n">
+        <v>339</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2348,12 +2246,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>344</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+        <v>341</v>
+      </c>
+      <c r="K53" t="n">
+        <v>339</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -2389,12 +2289,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>346</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+        <v>347</v>
+      </c>
+      <c r="K54" t="n">
+        <v>339</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -2430,12 +2332,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>345</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+        <v>344</v>
+      </c>
+      <c r="K55" t="n">
+        <v>339</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -2471,9 +2375,11 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>344</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>346</v>
+      </c>
+      <c r="K56" t="n">
+        <v>339</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2514,7 +2420,9 @@
       <c r="J57" t="n">
         <v>347</v>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>339</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2553,9 +2461,11 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>351</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="K58" t="n">
+        <v>339</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2588,15 +2498,15 @@
         <v>355.8166666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>356</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>339</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2635,7 +2545,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>339</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2674,7 +2586,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>339</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2713,7 +2627,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>339</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2752,7 +2668,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>339</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2791,7 +2709,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>339</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2830,7 +2750,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>339</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2869,7 +2791,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>339</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2908,7 +2832,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>339</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2947,7 +2873,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>339</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2986,7 +2914,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>339</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3025,7 +2955,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>339</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3064,7 +2996,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>339</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3103,7 +3037,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>339</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3142,7 +3078,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>339</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3181,7 +3119,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>339</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3220,7 +3160,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>339</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3259,7 +3201,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>339</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,7 +3242,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>339</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3337,7 +3283,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>339</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3376,7 +3324,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>339</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3415,7 +3365,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>339</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3454,7 +3406,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>339</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3493,7 +3447,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>339</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3532,7 +3488,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>339</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3571,7 +3529,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>339</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3610,7 +3570,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>339</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3649,7 +3611,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>339</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3688,7 +3652,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>339</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3727,7 +3693,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>339</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3766,7 +3734,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>339</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3805,7 +3775,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>339</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3844,7 +3816,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>339</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3883,7 +3857,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>339</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3922,7 +3898,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>339</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3961,7 +3939,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>339</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4000,7 +3980,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>339</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4039,7 +4021,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>339</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4078,7 +4062,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>339</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4117,7 +4103,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>339</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4156,7 +4144,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>339</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4195,7 +4185,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>339</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4234,7 +4226,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>339</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4273,7 +4267,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>339</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4312,7 +4308,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>339</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4351,7 +4349,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>339</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4384,15 +4384,15 @@
         <v>351.9833333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>349</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>339</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4431,7 +4431,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>339</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4470,7 +4472,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>339</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4509,7 +4513,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>339</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4548,7 +4554,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>339</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4587,7 +4595,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>339</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4626,7 +4636,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>339</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4665,7 +4677,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>339</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4704,7 +4718,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>339</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4743,7 +4759,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>339</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4782,7 +4800,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>339</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4821,7 +4841,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>339</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4860,7 +4882,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>339</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4899,7 +4923,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>339</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4938,7 +4964,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>339</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4977,7 +5005,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>339</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5016,7 +5046,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>339</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5055,7 +5087,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>339</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5094,7 +5128,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>339</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5133,7 +5169,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>339</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5172,7 +5210,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>339</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5211,7 +5251,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>339</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5244,15 +5286,15 @@
         <v>352.3166666666667</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>349</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>339</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5285,15 +5327,15 @@
         <v>352.2833333333334</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>349</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>339</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5326,15 +5368,15 @@
         <v>352.2833333333334</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>352</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>339</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5373,7 +5415,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>339</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5412,7 +5456,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>339</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5451,7 +5497,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>339</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5490,7 +5538,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>339</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5529,7 +5579,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>339</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5568,7 +5620,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>339</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5607,7 +5661,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>339</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5646,7 +5702,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>339</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5685,7 +5743,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>339</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5724,7 +5784,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>339</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5763,7 +5825,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>339</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5802,7 +5866,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>339</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5841,7 +5907,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>339</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5880,7 +5948,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>339</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5919,7 +5989,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>339</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5958,7 +6030,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>339</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5997,7 +6071,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>339</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6036,7 +6112,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>339</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6075,7 +6153,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>339</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6114,7 +6194,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>339</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6153,7 +6235,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>339</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6192,7 +6276,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>339</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6231,7 +6317,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>339</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6270,7 +6358,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>339</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6309,7 +6399,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>339</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6348,7 +6440,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>339</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6387,7 +6481,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>339</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6426,7 +6522,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>339</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6465,7 +6563,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>339</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6504,7 +6604,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>339</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6543,7 +6645,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>339</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6582,7 +6686,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>339</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6621,7 +6727,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>339</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6660,7 +6768,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>339</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6699,7 +6809,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>339</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6738,7 +6850,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>339</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6777,7 +6891,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>339</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6816,7 +6932,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>339</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6855,7 +6973,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>339</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6894,7 +7014,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>339</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6933,7 +7055,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>339</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6972,7 +7096,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>339</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7011,7 +7137,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>339</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7050,7 +7178,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>339</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7089,7 +7219,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>339</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7128,7 +7260,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>339</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7167,7 +7301,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>339</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7206,7 +7342,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>339</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7245,7 +7383,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>339</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7278,15 +7418,15 @@
         <v>351.4666666666666</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>347</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>339</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7319,15 +7459,15 @@
         <v>351.4166666666667</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>346</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>339</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7360,15 +7500,15 @@
         <v>351.3666666666667</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>346</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>339</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7401,15 +7541,15 @@
         <v>351.3</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>346</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>339</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7442,15 +7582,15 @@
         <v>351.2333333333333</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>346</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>339</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7483,15 +7623,15 @@
         <v>351.1666666666667</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>345</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>339</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7524,15 +7664,15 @@
         <v>351.1666666666667</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>345</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>339</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7565,15 +7705,15 @@
         <v>351.1</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>345</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>339</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7606,15 +7746,15 @@
         <v>351.0333333333334</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>345</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>339</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7647,15 +7787,15 @@
         <v>350.9333333333333</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>345</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>339</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7688,15 +7828,15 @@
         <v>350.7833333333334</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>344</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>339</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7729,15 +7869,15 @@
         <v>350.65</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>345</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>339</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7770,15 +7910,15 @@
         <v>350.4833333333333</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>344</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>339</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7811,15 +7951,15 @@
         <v>350.3333333333333</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>345</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>339</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7852,15 +7992,15 @@
         <v>350.15</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>344</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>339</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7893,15 +8033,15 @@
         <v>350</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>345</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>339</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7934,15 +8074,15 @@
         <v>349.8833333333333</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>345</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>339</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7975,15 +8115,15 @@
         <v>349.75</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>344</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>339</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8016,15 +8156,15 @@
         <v>349.6666666666667</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>347</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>339</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8057,15 +8197,15 @@
         <v>349.55</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>346</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>339</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8098,15 +8238,15 @@
         <v>349.45</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>345</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>339</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8139,15 +8279,15 @@
         <v>349.3</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>346</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>339</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8180,15 +8320,15 @@
         <v>349.1333333333333</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>345</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>339</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8221,15 +8361,15 @@
         <v>349.0333333333334</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>344</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>339</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8262,15 +8402,15 @@
         <v>348.8666666666667</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>343</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>339</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8303,15 +8443,15 @@
         <v>348.6833333333333</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>344</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>339</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8344,15 +8484,15 @@
         <v>348.5166666666667</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>344</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>339</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8385,15 +8525,15 @@
         <v>348.35</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>344</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>339</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8426,15 +8566,15 @@
         <v>348.1666666666667</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>344</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>339</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8467,15 +8607,15 @@
         <v>347.9666666666666</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>344</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>339</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8508,15 +8648,15 @@
         <v>347.7833333333334</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>344</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>339</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8549,15 +8689,15 @@
         <v>347.6</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>344</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>339</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8590,15 +8730,15 @@
         <v>347.45</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>344</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>339</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8631,15 +8771,15 @@
         <v>347.2666666666667</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>344</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>339</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8672,15 +8812,15 @@
         <v>347.1</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>344</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>339</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8713,15 +8853,15 @@
         <v>346.9666666666666</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>344</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>339</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8754,15 +8894,15 @@
         <v>346.85</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>345</v>
-      </c>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>339</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8795,15 +8935,15 @@
         <v>346.7</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>344</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>339</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8836,15 +8976,15 @@
         <v>346.5666666666667</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>343</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>339</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8877,15 +9017,15 @@
         <v>346.45</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>343</v>
-      </c>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>339</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8918,15 +9058,15 @@
         <v>346.4333333333333</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>349</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>339</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8959,15 +9099,15 @@
         <v>346.3666666666667</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>347</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>339</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9000,15 +9140,15 @@
         <v>346.3166666666667</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>348</v>
-      </c>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>339</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9041,15 +9181,15 @@
         <v>346.3166666666667</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>348</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>339</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9082,15 +9222,15 @@
         <v>346.3166666666667</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>347</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>339</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9123,15 +9263,15 @@
         <v>346.2833333333334</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>349</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>339</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9164,15 +9304,15 @@
         <v>346.25</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>349</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>339</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9205,15 +9345,15 @@
         <v>346.3</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>350</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>339</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9246,15 +9386,15 @@
         <v>346.35</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>354</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>339</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9287,15 +9427,15 @@
         <v>346.35</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>355</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>339</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9334,7 +9474,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>339</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9373,7 +9515,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>339</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9412,7 +9556,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>339</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9451,7 +9597,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>339</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9490,7 +9638,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>339</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9529,7 +9679,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>339</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9568,7 +9720,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>339</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9607,7 +9761,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>339</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9646,7 +9802,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>339</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9685,7 +9843,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>339</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9724,7 +9884,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>339</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9763,7 +9925,9 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>339</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9802,7 +9966,9 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>339</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9841,7 +10007,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>339</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9880,7 +10048,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>339</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9919,7 +10089,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>339</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9958,7 +10130,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>339</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9997,7 +10171,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>339</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10036,7 +10212,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>339</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10075,7 +10253,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>339</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10114,7 +10294,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>339</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10153,7 +10335,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>339</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10192,7 +10376,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>339</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10231,7 +10417,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>339</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10270,7 +10458,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>339</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10309,7 +10499,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>339</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10348,7 +10540,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>339</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10381,15 +10575,15 @@
         <v>348.7666666666667</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>347</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>339</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10422,15 +10616,15 @@
         <v>348.7833333333334</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>347</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>339</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10463,15 +10657,15 @@
         <v>348.7833333333334</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>347</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>339</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10504,15 +10698,15 @@
         <v>348.85</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>349</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>339</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10545,15 +10739,15 @@
         <v>348.9333333333333</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>349</v>
-      </c>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>339</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10586,15 +10780,15 @@
         <v>348.9833333333333</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>349</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>339</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10627,15 +10821,15 @@
         <v>349</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>346</v>
-      </c>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>339</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10668,15 +10862,15 @@
         <v>349.0666666666667</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>347</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>339</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10709,15 +10903,15 @@
         <v>349.1</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>346</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>339</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10750,15 +10944,15 @@
         <v>349.1666666666667</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>348</v>
-      </c>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>339</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10791,15 +10985,15 @@
         <v>349.2</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>346</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>339</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10832,15 +11026,15 @@
         <v>349.25</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>347</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>339</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10873,15 +11067,15 @@
         <v>349.3</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>347</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>339</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10914,15 +11108,15 @@
         <v>349.3333333333333</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>346</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>339</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10955,15 +11149,15 @@
         <v>349.3666666666667</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>346</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>339</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10996,15 +11190,15 @@
         <v>349.4333333333333</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>346</v>
-      </c>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>339</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11037,15 +11231,15 @@
         <v>349.5</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>348</v>
-      </c>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>339</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11078,15 +11272,15 @@
         <v>349.5833333333333</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>348</v>
-      </c>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>339</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11119,15 +11313,15 @@
         <v>349.6833333333333</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>350</v>
-      </c>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>339</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11160,15 +11354,15 @@
         <v>349.7833333333334</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>350</v>
-      </c>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>339</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11201,15 +11395,15 @@
         <v>349.9666666666666</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>352</v>
-      </c>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>339</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11242,15 +11436,15 @@
         <v>350.1166666666667</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>352</v>
-      </c>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>339</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11289,7 +11483,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>339</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11328,7 +11524,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>339</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11367,7 +11565,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>339</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11406,7 +11606,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>339</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11445,7 +11647,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>339</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11484,7 +11688,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>339</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11517,15 +11723,15 @@
         <v>350.15</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>346</v>
-      </c>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>339</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11558,15 +11764,15 @@
         <v>350.0833333333333</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>346</v>
-      </c>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>339</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11599,15 +11805,15 @@
         <v>349.9666666666666</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>345</v>
-      </c>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>339</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11640,15 +11846,15 @@
         <v>349.85</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>345</v>
-      </c>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>339</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11681,15 +11887,15 @@
         <v>349.7166666666666</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>346</v>
-      </c>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>339</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11722,15 +11928,15 @@
         <v>349.55</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>344</v>
-      </c>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>339</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11763,15 +11969,15 @@
         <v>349.35</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>343</v>
-      </c>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>339</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11804,15 +12010,15 @@
         <v>349.2</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>343</v>
-      </c>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>339</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11845,15 +12051,15 @@
         <v>349.0166666666667</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>345</v>
-      </c>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>339</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11886,15 +12092,15 @@
         <v>348.8333333333333</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>343</v>
-      </c>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>339</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11927,15 +12133,15 @@
         <v>348.6666666666667</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>346</v>
-      </c>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>339</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11968,15 +12174,15 @@
         <v>348.55</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>346</v>
-      </c>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>339</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12009,15 +12215,15 @@
         <v>348.4666666666666</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>346</v>
-      </c>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>339</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12050,15 +12256,15 @@
         <v>348.35</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>346</v>
-      </c>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>339</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12091,15 +12297,15 @@
         <v>348.2333333333333</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>346</v>
-      </c>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>339</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12132,15 +12338,15 @@
         <v>348.0666666666667</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>344</v>
-      </c>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>339</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12173,15 +12379,15 @@
         <v>347.95</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>346</v>
-      </c>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>339</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12214,15 +12420,15 @@
         <v>347.85</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>346</v>
-      </c>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>339</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12255,15 +12461,15 @@
         <v>347.75</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>345</v>
-      </c>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>339</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12296,15 +12502,15 @@
         <v>347.6833333333333</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>347</v>
-      </c>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>339</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12337,15 +12543,15 @@
         <v>347.5666666666667</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>345</v>
-      </c>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>339</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12378,15 +12584,15 @@
         <v>347.45</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>345</v>
-      </c>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>339</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12419,15 +12625,15 @@
         <v>347.3333333333333</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>344</v>
-      </c>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>339</v>
+      </c>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12460,15 +12666,15 @@
         <v>347.25</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>346</v>
-      </c>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>339</v>
+      </c>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12501,15 +12707,15 @@
         <v>347.15</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>344</v>
-      </c>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>339</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12542,15 +12748,15 @@
         <v>347.05</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>344</v>
-      </c>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>339</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12583,15 +12789,15 @@
         <v>346.9666666666666</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>345</v>
-      </c>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>339</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12624,15 +12830,15 @@
         <v>346.8666666666667</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>344</v>
-      </c>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>339</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12665,15 +12871,15 @@
         <v>346.8</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>344</v>
-      </c>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>339</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12706,15 +12912,15 @@
         <v>346.7333333333333</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>345</v>
-      </c>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>339</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12747,15 +12953,15 @@
         <v>346.6666666666667</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>345</v>
-      </c>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>339</v>
+      </c>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12788,15 +12994,15 @@
         <v>346.6166666666667</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>345</v>
-      </c>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>339</v>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12829,15 +13035,15 @@
         <v>346.5666666666667</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>345</v>
-      </c>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>339</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12870,15 +13076,15 @@
         <v>346.5333333333334</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>346</v>
-      </c>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>339</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12911,15 +13117,15 @@
         <v>346.55</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>347</v>
-      </c>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>339</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12952,15 +13158,15 @@
         <v>346.55</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>349</v>
-      </c>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>339</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12993,15 +13199,15 @@
         <v>346.55</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>349</v>
-      </c>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>339</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13034,15 +13240,15 @@
         <v>346.6333333333333</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>351</v>
-      </c>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>339</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13075,15 +13281,15 @@
         <v>346.75</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>352</v>
-      </c>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>339</v>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13116,15 +13322,15 @@
         <v>346.75</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>347</v>
-      </c>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>339</v>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13157,15 +13363,15 @@
         <v>346.8166666666667</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>350</v>
-      </c>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>339</v>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13198,15 +13404,15 @@
         <v>346.85</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>350</v>
-      </c>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>339</v>
+      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13239,15 +13445,15 @@
         <v>346.8666666666667</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>347</v>
-      </c>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>339</v>
+      </c>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13280,15 +13486,15 @@
         <v>346.9166666666667</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>350</v>
-      </c>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>339</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13321,15 +13527,15 @@
         <v>346.9666666666666</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>350</v>
-      </c>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>339</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13362,15 +13568,15 @@
         <v>347.0333333333334</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>351</v>
-      </c>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>339</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13403,15 +13609,15 @@
         <v>347.1333333333333</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>350</v>
-      </c>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>339</v>
+      </c>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13444,15 +13650,15 @@
         <v>347.2333333333333</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>354</v>
-      </c>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>339</v>
+      </c>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13491,7 +13697,9 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>339</v>
+      </c>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13530,7 +13738,9 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>339</v>
+      </c>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13569,7 +13779,9 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>339</v>
+      </c>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13608,7 +13820,9 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>339</v>
+      </c>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13647,7 +13861,9 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>339</v>
+      </c>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13686,7 +13902,9 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>339</v>
+      </c>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13725,7 +13943,9 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>339</v>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13764,7 +13984,9 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>339</v>
+      </c>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13803,7 +14025,9 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>339</v>
+      </c>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13842,7 +14066,9 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>339</v>
+      </c>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13881,7 +14107,9 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>339</v>
+      </c>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13920,7 +14148,9 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>339</v>
+      </c>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13959,7 +14189,9 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>339</v>
+      </c>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13998,7 +14230,9 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>339</v>
+      </c>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14037,7 +14271,9 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>339</v>
+      </c>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14076,7 +14312,9 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>339</v>
+      </c>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14115,7 +14353,9 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>339</v>
+      </c>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14154,7 +14394,9 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>339</v>
+      </c>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14193,7 +14435,9 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>339</v>
+      </c>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14232,7 +14476,9 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>339</v>
+      </c>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14271,7 +14517,9 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>339</v>
+      </c>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14310,7 +14558,9 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>339</v>
+      </c>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14349,7 +14599,9 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>339</v>
+      </c>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14388,7 +14640,9 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>339</v>
+      </c>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14427,7 +14681,9 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>339</v>
+      </c>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14466,7 +14722,9 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>339</v>
+      </c>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14505,7 +14763,9 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>339</v>
+      </c>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14544,7 +14804,9 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>339</v>
+      </c>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14583,7 +14845,9 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>339</v>
+      </c>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14622,7 +14886,9 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>339</v>
+      </c>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14661,7 +14927,9 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>339</v>
+      </c>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14700,7 +14968,9 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>339</v>
+      </c>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14739,7 +15009,9 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>339</v>
+      </c>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14778,7 +15050,9 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>339</v>
+      </c>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14817,7 +15091,9 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>339</v>
+      </c>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14856,7 +15132,9 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>339</v>
+      </c>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14895,7 +15173,9 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>339</v>
+      </c>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14934,7 +15214,9 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>339</v>
+      </c>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14973,7 +15255,9 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>339</v>
+      </c>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15012,7 +15296,9 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>339</v>
+      </c>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15051,7 +15337,9 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>339</v>
+      </c>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15090,7 +15378,9 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>339</v>
+      </c>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15129,7 +15419,9 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>339</v>
+      </c>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15168,7 +15460,9 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>339</v>
+      </c>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15207,7 +15501,9 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>339</v>
+      </c>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15246,7 +15542,9 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>339</v>
+      </c>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15285,7 +15583,9 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>339</v>
+      </c>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15324,7 +15624,9 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>339</v>
+      </c>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15363,7 +15665,9 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>339</v>
+      </c>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15402,7 +15706,9 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>339</v>
+      </c>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15441,7 +15747,9 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>339</v>
+      </c>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15480,7 +15788,9 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>339</v>
+      </c>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15519,7 +15829,9 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>339</v>
+      </c>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15558,7 +15870,9 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>339</v>
+      </c>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15597,7 +15911,9 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>339</v>
+      </c>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15636,7 +15952,9 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>339</v>
+      </c>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15675,7 +15993,9 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>339</v>
+      </c>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15714,7 +16034,9 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>339</v>
+      </c>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15753,7 +16075,9 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>339</v>
+      </c>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15792,7 +16116,9 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>339</v>
+      </c>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15831,7 +16157,9 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>339</v>
+      </c>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15870,7 +16198,9 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>339</v>
+      </c>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15909,7 +16239,9 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>339</v>
+      </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15948,7 +16280,9 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>339</v>
+      </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15987,7 +16321,9 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>339</v>
+      </c>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16026,7 +16362,9 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>339</v>
+      </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16065,7 +16403,9 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>339</v>
+      </c>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16104,7 +16444,9 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>339</v>
+      </c>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16143,7 +16485,9 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>339</v>
+      </c>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16182,7 +16526,9 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>339</v>
+      </c>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16221,7 +16567,9 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>339</v>
+      </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16260,7 +16608,9 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>339</v>
+      </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16299,7 +16649,9 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>339</v>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16338,7 +16690,9 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>339</v>
+      </c>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16377,7 +16731,9 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>339</v>
+      </c>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16416,7 +16772,9 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>339</v>
+      </c>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16455,7 +16813,9 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>339</v>
+      </c>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16494,7 +16854,9 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>339</v>
+      </c>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16533,7 +16895,9 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>339</v>
+      </c>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16572,7 +16936,9 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>339</v>
+      </c>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16611,7 +16977,9 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>339</v>
+      </c>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16650,7 +17018,9 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>339</v>
+      </c>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16689,7 +17059,9 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>339</v>
+      </c>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16728,7 +17100,9 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>339</v>
+      </c>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16767,7 +17141,9 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>339</v>
+      </c>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16806,7 +17182,9 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>339</v>
+      </c>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16845,7 +17223,9 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>339</v>
+      </c>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16884,7 +17264,9 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>339</v>
+      </c>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16923,7 +17305,9 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>339</v>
+      </c>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16962,7 +17346,9 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>339</v>
+      </c>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17001,7 +17387,9 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>339</v>
+      </c>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17040,7 +17428,9 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>339</v>
+      </c>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17079,7 +17469,9 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>339</v>
+      </c>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17118,7 +17510,9 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>339</v>
+      </c>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17157,7 +17551,9 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>339</v>
+      </c>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17196,7 +17592,9 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>339</v>
+      </c>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17235,7 +17633,9 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>339</v>
+      </c>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17274,7 +17674,9 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>339</v>
+      </c>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17313,7 +17715,9 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>339</v>
+      </c>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17352,7 +17756,9 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>339</v>
+      </c>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17391,7 +17797,9 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>339</v>
+      </c>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17430,7 +17838,9 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>339</v>
+      </c>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17469,7 +17879,9 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>339</v>
+      </c>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17508,7 +17920,9 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>339</v>
+      </c>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17547,7 +17961,9 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>339</v>
+      </c>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17586,7 +18002,9 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>339</v>
+      </c>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17625,7 +18043,9 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>339</v>
+      </c>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17664,7 +18084,9 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>339</v>
+      </c>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17703,7 +18125,9 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>339</v>
+      </c>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17742,7 +18166,9 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>339</v>
+      </c>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17781,7 +18207,9 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>339</v>
+      </c>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17820,7 +18248,9 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>339</v>
+      </c>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17859,7 +18289,9 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>339</v>
+      </c>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17898,7 +18330,9 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>339</v>
+      </c>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17937,7 +18371,9 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>339</v>
+      </c>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17976,7 +18412,9 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>339</v>
+      </c>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18015,7 +18453,9 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>339</v>
+      </c>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18054,7 +18494,9 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>339</v>
+      </c>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18093,7 +18535,9 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>339</v>
+      </c>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18132,7 +18576,9 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>339</v>
+      </c>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18171,7 +18617,9 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>339</v>
+      </c>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18210,7 +18658,9 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>339</v>
+      </c>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18249,7 +18699,9 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>339</v>
+      </c>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18288,7 +18740,9 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>339</v>
+      </c>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18327,7 +18781,9 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>339</v>
+      </c>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18366,7 +18822,9 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>339</v>
+      </c>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18405,7 +18863,9 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>339</v>
+      </c>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18444,7 +18904,9 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>339</v>
+      </c>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18483,7 +18945,9 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>339</v>
+      </c>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18522,7 +18986,9 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>339</v>
+      </c>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18561,7 +19027,9 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>339</v>
+      </c>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18600,7 +19068,9 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>339</v>
+      </c>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18639,7 +19109,9 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>339</v>
+      </c>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18678,7 +19150,9 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>339</v>
+      </c>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18717,7 +19191,9 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>339</v>
+      </c>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18756,7 +19232,9 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>339</v>
+      </c>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18795,7 +19273,9 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>339</v>
+      </c>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18834,7 +19314,9 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>339</v>
+      </c>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18873,7 +19355,9 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>339</v>
+      </c>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18912,7 +19396,9 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>339</v>
+      </c>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18951,7 +19437,9 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>339</v>
+      </c>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18990,7 +19478,9 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>339</v>
+      </c>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19029,7 +19519,9 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>339</v>
+      </c>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19068,7 +19560,9 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>339</v>
+      </c>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19107,7 +19601,9 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>339</v>
+      </c>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19146,7 +19642,9 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>339</v>
+      </c>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19185,7 +19683,9 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>339</v>
+      </c>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19224,7 +19724,9 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>339</v>
+      </c>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19263,7 +19765,9 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>339</v>
+      </c>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19302,7 +19806,9 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>339</v>
+      </c>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19341,7 +19847,9 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>339</v>
+      </c>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19380,7 +19888,9 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>339</v>
+      </c>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19419,7 +19929,9 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>339</v>
+      </c>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19458,7 +19970,9 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>339</v>
+      </c>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19497,7 +20011,9 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>339</v>
+      </c>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19536,7 +20052,9 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>339</v>
+      </c>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19575,7 +20093,9 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>339</v>
+      </c>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19614,7 +20134,9 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>339</v>
+      </c>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19653,7 +20175,9 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>339</v>
+      </c>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19692,7 +20216,9 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>339</v>
+      </c>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19731,7 +20257,9 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>339</v>
+      </c>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19770,7 +20298,9 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>339</v>
+      </c>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19809,7 +20339,9 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>339</v>
+      </c>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19848,7 +20380,9 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>339</v>
+      </c>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19887,7 +20421,9 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>339</v>
+      </c>
       <c r="L496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19926,7 +20462,9 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>339</v>
+      </c>
       <c r="L497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19965,7 +20503,9 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>339</v>
+      </c>
       <c r="L498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20004,7 +20544,9 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>339</v>
+      </c>
       <c r="L499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20043,7 +20585,9 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>339</v>
+      </c>
       <c r="L500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20082,7 +20626,9 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>339</v>
+      </c>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20121,7 +20667,9 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>339</v>
+      </c>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20160,7 +20708,9 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>339</v>
+      </c>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20199,7 +20749,9 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>339</v>
+      </c>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20238,7 +20790,9 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>339</v>
+      </c>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20277,7 +20831,9 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>339</v>
+      </c>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20316,7 +20872,9 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>339</v>
+      </c>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20355,7 +20913,9 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>339</v>
+      </c>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20394,7 +20954,9 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>339</v>
+      </c>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20433,7 +20995,9 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>339</v>
+      </c>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20472,7 +21036,9 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>339</v>
+      </c>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20511,7 +21077,9 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>339</v>
+      </c>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20550,7 +21118,9 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>339</v>
+      </c>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20589,7 +21159,9 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>339</v>
+      </c>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20628,7 +21200,9 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>339</v>
+      </c>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20667,7 +21241,9 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>339</v>
+      </c>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20706,7 +21282,9 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>339</v>
+      </c>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20745,7 +21323,9 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>339</v>
+      </c>
       <c r="L518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20784,7 +21364,9 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>339</v>
+      </c>
       <c r="L519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20823,7 +21405,9 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>339</v>
+      </c>
       <c r="L520" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-14 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-14 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-40121.5447</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-36516.0383</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>316</v>
@@ -521,7 +521,7 @@
         <v>-36029.9089</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>317</v>
@@ -562,7 +562,7 @@
         <v>-36034.9089</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>321</v>
@@ -603,7 +603,7 @@
         <v>-36033.9089</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>320</v>
@@ -640,7 +640,7 @@
         <v>-36158.9089</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>325</v>
@@ -681,7 +681,7 @@
         <v>-36158.9089</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>324</v>
@@ -722,7 +722,7 @@
         <v>-36009.6397</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>324</v>
@@ -759,9 +759,11 @@
         <v>-35012.1397</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>325</v>
+      </c>
       <c r="J10" t="n">
         <v>324</v>
       </c>
@@ -798,9 +800,11 @@
         <v>-35731.2948</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>326</v>
+      </c>
       <c r="J11" t="n">
         <v>324</v>
       </c>
@@ -837,7 +841,7 @@
         <v>-37496.6117</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>325</v>
@@ -874,7 +878,7 @@
         <v>-36554.8353</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>324</v>
@@ -915,9 +919,11 @@
         <v>-34366.9817</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>327</v>
+      </c>
       <c r="J14" t="n">
         <v>325</v>
       </c>
@@ -954,10 +960,14 @@
         <v>-34843.88989999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>328</v>
+      </c>
+      <c r="J15" t="n">
+        <v>328</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -987,11 +997,19 @@
         <v>-34842.21919999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>327</v>
+      </c>
+      <c r="J16" t="n">
+        <v>328</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1020,11 +1038,19 @@
         <v>-34842.21919999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>328</v>
+      </c>
+      <c r="J17" t="n">
+        <v>328</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -4089,7 +4115,7 @@
         <v>180730.8439870786</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4155,7 +4181,7 @@
         <v>183540.7964870787</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4386,7 +4412,7 @@
         <v>213075.3173870787</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4419,7 +4445,7 @@
         <v>201739.2244870787</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4452,7 +4478,7 @@
         <v>210395.8630870787</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4485,7 +4511,7 @@
         <v>200751.0840870787</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4518,7 +4544,7 @@
         <v>202026.4379870787</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4551,7 +4577,7 @@
         <v>190827.1719870786</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4584,7 +4610,7 @@
         <v>190827.1719870786</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4617,7 +4643,7 @@
         <v>190827.1719870786</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4650,7 +4676,7 @@
         <v>185546.2699870786</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4683,7 +4709,7 @@
         <v>185546.2699870786</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4716,7 +4742,7 @@
         <v>184940.9312870787</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4749,7 +4775,7 @@
         <v>194468.8892870787</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4782,7 +4808,7 @@
         <v>184408.3644870787</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5244,7 +5270,7 @@
         <v>167491.5209870786</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5310,7 +5336,7 @@
         <v>171059.4659870786</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5343,7 +5369,7 @@
         <v>171063.0594870786</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5376,7 +5402,7 @@
         <v>168935.2048870786</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -16992,7 +17018,7 @@
         <v>681050.7230069704</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17157,7 +17183,7 @@
         <v>589570.3078069703</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17190,7 +17216,7 @@
         <v>589570.3078069703</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17223,7 +17249,7 @@
         <v>589570.3078069703</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17256,7 +17282,7 @@
         <v>572717.1494069704</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17289,7 +17315,7 @@
         <v>558368.4768069703</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17322,7 +17348,7 @@
         <v>560200.6935069703</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17355,7 +17381,7 @@
         <v>550679.2823069703</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17388,7 +17414,7 @@
         <v>550679.2823069703</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17421,7 +17447,7 @@
         <v>531475.9461113182</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17454,7 +17480,7 @@
         <v>531475.9461113182</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17487,7 +17513,7 @@
         <v>531475.9461113182</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17520,7 +17546,7 @@
         <v>552657.0835113182</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17553,7 +17579,7 @@
         <v>552657.0835113182</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17586,7 +17612,7 @@
         <v>555038.1733113182</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17619,7 +17645,7 @@
         <v>551415.1139113181</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17652,7 +17678,7 @@
         <v>551415.1139113181</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17685,7 +17711,7 @@
         <v>588084.0353968767</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17718,7 +17744,7 @@
         <v>592735.1368536805</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17751,7 +17777,7 @@
         <v>592735.1368536805</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17784,7 +17810,7 @@
         <v>592735.1368536805</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17817,7 +17843,7 @@
         <v>609554.1754536805</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17850,7 +17876,7 @@
         <v>584353.3938050318</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17883,7 +17909,7 @@
         <v>562109.4119050318</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17916,7 +17942,7 @@
         <v>562109.4119050318</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17949,7 +17975,7 @@
         <v>565340.12962284</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17982,7 +18008,7 @@
         <v>557084.68432284</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18015,7 +18041,7 @@
         <v>563368.6301050318</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18048,7 +18074,7 @@
         <v>563368.6301050318</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18081,7 +18107,7 @@
         <v>563367.6301050318</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18114,7 +18140,7 @@
         <v>563367.6301050318</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18147,7 +18173,7 @@
         <v>583844.2507050318</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18180,7 +18206,7 @@
         <v>577838.0290570979</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18213,7 +18239,7 @@
         <v>576732.8137570978</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18246,7 +18272,7 @@
         <v>576540.5488570979</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18279,7 +18305,7 @@
         <v>577903.4261570979</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18312,7 +18338,7 @@
         <v>583259.0940570979</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18345,7 +18371,7 @@
         <v>583259.0940570979</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18378,7 +18404,7 @@
         <v>583259.0940570979</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18411,7 +18437,7 @@
         <v>583259.0940570979</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18444,7 +18470,7 @@
         <v>583349.0940570979</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18477,7 +18503,7 @@
         <v>583349.0940570979</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18510,7 +18536,7 @@
         <v>583549.0940570979</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18543,7 +18569,7 @@
         <v>582775.0340570979</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18576,7 +18602,7 @@
         <v>583279.4492570979</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18609,7 +18635,7 @@
         <v>601294.2279570979</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18642,7 +18668,7 @@
         <v>601294.2279570979</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18675,7 +18701,7 @@
         <v>600205.3559964421</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18708,7 +18734,7 @@
         <v>601498.4859964421</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18774,7 +18800,7 @@
         <v>601498.4859964421</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18807,7 +18833,7 @@
         <v>609106.8953964422</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18873,7 +18899,7 @@
         <v>618525.0771964422</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18906,7 +18932,7 @@
         <v>622383.9773964422</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18939,7 +18965,7 @@
         <v>622383.9773964422</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18972,7 +18998,7 @@
         <v>653840.6940964422</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19005,7 +19031,7 @@
         <v>675491.7270964422</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19038,7 +19064,7 @@
         <v>675489.1600964422</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19071,7 +19097,7 @@
         <v>708619.7570964422</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19104,7 +19130,7 @@
         <v>673117.2622964422</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19137,7 +19163,7 @@
         <v>678692.4371964422</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19170,7 +19196,7 @@
         <v>626806.8047964422</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19203,7 +19229,7 @@
         <v>591937.4465964421</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19236,7 +19262,7 @@
         <v>599155.7508964421</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19269,7 +19295,7 @@
         <v>599155.7508964421</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19302,7 +19328,7 @@
         <v>606993.9059237149</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19335,7 +19361,7 @@
         <v>595159.8128237148</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19368,7 +19394,7 @@
         <v>599846.3983237148</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19401,7 +19427,7 @@
         <v>599767.2921237148</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19434,7 +19460,7 @@
         <v>602458.7517237148</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19467,7 +19493,7 @@
         <v>602458.7517237148</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19500,7 +19526,7 @@
         <v>697168.3155237148</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19533,7 +19559,7 @@
         <v>697168.3155237148</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19566,7 +19592,7 @@
         <v>702497.5674237148</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19599,7 +19625,7 @@
         <v>764322.7703237148</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19632,7 +19658,7 @@
         <v>738307.4467237148</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19665,7 +19691,7 @@
         <v>752252.0765237148</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19698,7 +19724,7 @@
         <v>779162.4845237149</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19731,7 +19757,7 @@
         <v>743017.6366237148</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19764,7 +19790,7 @@
         <v>732317.5595237148</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19797,7 +19823,7 @@
         <v>747051.1633237149</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19830,7 +19856,7 @@
         <v>767947.9303237149</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19863,7 +19889,7 @@
         <v>797598.9060237148</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19896,7 +19922,7 @@
         <v>701003.1161237148</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19907,6 +19933,6 @@
       <c r="M589" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-14 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -681,11 +681,9 @@
         <v>-36158.9089</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>324</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>320</v>
       </c>
@@ -722,14 +720,10 @@
         <v>-36009.6397</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>324</v>
-      </c>
-      <c r="J9" t="n">
-        <v>324</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +753,11 @@
         <v>-35012.1397</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>325</v>
-      </c>
-      <c r="J10" t="n">
-        <v>324</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +786,11 @@
         <v>-35731.2948</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>326</v>
-      </c>
-      <c r="J11" t="n">
-        <v>324</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,14 +819,10 @@
         <v>-37496.6117</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>325</v>
-      </c>
-      <c r="J12" t="n">
-        <v>325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -878,19 +852,11 @@
         <v>-36554.8353</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>324</v>
-      </c>
-      <c r="J13" t="n">
-        <v>325</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -919,19 +885,11 @@
         <v>-34366.9817</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>327</v>
-      </c>
-      <c r="J14" t="n">
-        <v>325</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -960,14 +918,10 @@
         <v>-34843.88989999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>328</v>
-      </c>
-      <c r="J15" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -997,19 +951,11 @@
         <v>-34842.21919999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>327</v>
-      </c>
-      <c r="J16" t="n">
-        <v>328</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1038,19 +984,11 @@
         <v>-34842.21919999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>328</v>
-      </c>
-      <c r="J17" t="n">
-        <v>328</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1871,7 +1809,7 @@
         <v>78796.84417878788</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1904,7 +1842,7 @@
         <v>108000.8270218078</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1937,7 +1875,7 @@
         <v>107257.4217218078</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1970,7 +1908,7 @@
         <v>107257.4217218078</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2003,7 +1941,7 @@
         <v>117244.4141218078</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2036,7 +1974,7 @@
         <v>124655.0343218078</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2069,7 +2007,7 @@
         <v>109984.7864218078</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2102,7 +2040,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2135,7 +2073,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2168,7 +2106,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2201,7 +2139,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2234,7 +2172,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2267,7 +2205,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2300,7 +2238,7 @@
         <v>121486.3110218078</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2333,7 +2271,7 @@
         <v>134730.3589218078</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2366,7 +2304,7 @@
         <v>136419.378768005</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2399,7 +2337,7 @@
         <v>136264.427668005</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2432,7 +2370,7 @@
         <v>138434.485768005</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2465,7 +2403,7 @@
         <v>138434.485768005</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2498,7 +2436,7 @@
         <v>162478.0402268285</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2531,7 +2469,7 @@
         <v>181821.6871268285</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2564,7 +2502,7 @@
         <v>188786.846068005</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2597,7 +2535,7 @@
         <v>210428.663468005</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2630,7 +2568,7 @@
         <v>210622.006768005</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2663,7 +2601,7 @@
         <v>189326.563368005</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2696,7 +2634,7 @@
         <v>205877.086768005</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2729,7 +2667,7 @@
         <v>195498.335868005</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2762,7 +2700,7 @@
         <v>202498.563968005</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2795,7 +2733,7 @@
         <v>188226.874668005</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2828,7 +2766,7 @@
         <v>199223.282168005</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -5732,7 +5670,7 @@
         <v>145286.7667870786</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5765,7 +5703,7 @@
         <v>145286.7667870786</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5798,7 +5736,7 @@
         <v>143704.0481870786</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5831,7 +5769,7 @@
         <v>143704.0481870786</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -7547,7 +7485,7 @@
         <v>129213.3791018999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -11012,7 +10950,7 @@
         <v>155271.5747001986</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -13520,7 +13458,7 @@
         <v>217818.1943655166</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13553,7 +13491,7 @@
         <v>211010.1644655166</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13652,7 +13590,7 @@
         <v>272418.0813819055</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13685,7 +13623,7 @@
         <v>272418.0813819055</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14147,7 +14085,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14180,7 +14118,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14213,7 +14151,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14378,7 +14316,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14411,7 +14349,7 @@
         <v>278427.9779819055</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14444,7 +14382,7 @@
         <v>275828.2856819055</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14477,7 +14415,7 @@
         <v>274952.3694819055</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14510,7 +14448,7 @@
         <v>274952.3694819055</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14543,7 +14481,7 @@
         <v>275121.2870819055</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -17018,7 +16956,7 @@
         <v>681050.7230069704</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17183,7 +17121,7 @@
         <v>589570.3078069703</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17216,7 +17154,7 @@
         <v>589570.3078069703</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17249,7 +17187,7 @@
         <v>589570.3078069703</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17282,7 +17220,7 @@
         <v>572717.1494069704</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17315,7 +17253,7 @@
         <v>558368.4768069703</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17348,7 +17286,7 @@
         <v>560200.6935069703</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17381,7 +17319,7 @@
         <v>550679.2823069703</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17414,7 +17352,7 @@
         <v>550679.2823069703</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17447,7 +17385,7 @@
         <v>531475.9461113182</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17480,7 +17418,7 @@
         <v>531475.9461113182</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17513,7 +17451,7 @@
         <v>531475.9461113182</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17546,7 +17484,7 @@
         <v>552657.0835113182</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17579,7 +17517,7 @@
         <v>552657.0835113182</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17612,7 +17550,7 @@
         <v>555038.1733113182</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17645,7 +17583,7 @@
         <v>551415.1139113181</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17678,7 +17616,7 @@
         <v>551415.1139113181</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17711,7 +17649,7 @@
         <v>588084.0353968767</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17744,7 +17682,7 @@
         <v>592735.1368536805</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17777,7 +17715,7 @@
         <v>592735.1368536805</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17810,7 +17748,7 @@
         <v>592735.1368536805</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17843,7 +17781,7 @@
         <v>609554.1754536805</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17876,7 +17814,7 @@
         <v>584353.3938050318</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17909,7 +17847,7 @@
         <v>562109.4119050318</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17942,7 +17880,7 @@
         <v>562109.4119050318</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17975,7 +17913,7 @@
         <v>565340.12962284</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18008,7 +17946,7 @@
         <v>557084.68432284</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18041,7 +17979,7 @@
         <v>563368.6301050318</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18074,7 +18012,7 @@
         <v>563368.6301050318</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18107,7 +18045,7 @@
         <v>563367.6301050318</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18140,7 +18078,7 @@
         <v>563367.6301050318</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18173,7 +18111,7 @@
         <v>583844.2507050318</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18206,7 +18144,7 @@
         <v>577838.0290570979</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18239,7 +18177,7 @@
         <v>576732.8137570978</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18272,7 +18210,7 @@
         <v>576540.5488570979</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18305,7 +18243,7 @@
         <v>577903.4261570979</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18338,7 +18276,7 @@
         <v>583259.0940570979</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18371,7 +18309,7 @@
         <v>583259.0940570979</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18404,7 +18342,7 @@
         <v>583259.0940570979</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18437,7 +18375,7 @@
         <v>583259.0940570979</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18470,7 +18408,7 @@
         <v>583349.0940570979</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18503,7 +18441,7 @@
         <v>583349.0940570979</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18536,7 +18474,7 @@
         <v>583549.0940570979</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18569,7 +18507,7 @@
         <v>582775.0340570979</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18602,7 +18540,7 @@
         <v>583279.4492570979</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18635,7 +18573,7 @@
         <v>601294.2279570979</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18668,7 +18606,7 @@
         <v>601294.2279570979</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18701,7 +18639,7 @@
         <v>600205.3559964421</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18734,7 +18672,7 @@
         <v>601498.4859964421</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18800,7 +18738,7 @@
         <v>601498.4859964421</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18833,7 +18771,7 @@
         <v>609106.8953964422</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18899,7 +18837,7 @@
         <v>618525.0771964422</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18932,7 +18870,7 @@
         <v>622383.9773964422</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18965,7 +18903,7 @@
         <v>622383.9773964422</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18998,7 +18936,7 @@
         <v>653840.6940964422</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19031,7 +18969,7 @@
         <v>675491.7270964422</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19064,7 +19002,7 @@
         <v>675489.1600964422</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19097,7 +19035,7 @@
         <v>708619.7570964422</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19130,7 +19068,7 @@
         <v>673117.2622964422</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19163,7 +19101,7 @@
         <v>678692.4371964422</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19196,7 +19134,7 @@
         <v>626806.8047964422</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19229,7 +19167,7 @@
         <v>591937.4465964421</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19262,7 +19200,7 @@
         <v>599155.7508964421</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19295,7 +19233,7 @@
         <v>599155.7508964421</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19328,7 +19266,7 @@
         <v>606993.9059237149</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19361,7 +19299,7 @@
         <v>595159.8128237148</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19394,7 +19332,7 @@
         <v>599846.3983237148</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19427,7 +19365,7 @@
         <v>599767.2921237148</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19460,7 +19398,7 @@
         <v>602458.7517237148</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19493,7 +19431,7 @@
         <v>602458.7517237148</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19526,7 +19464,7 @@
         <v>697168.3155237148</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19559,7 +19497,7 @@
         <v>697168.3155237148</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19592,7 +19530,7 @@
         <v>702497.5674237148</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19625,7 +19563,7 @@
         <v>764322.7703237148</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19658,7 +19596,7 @@
         <v>738307.4467237148</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19691,7 +19629,7 @@
         <v>752252.0765237148</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19724,7 +19662,7 @@
         <v>779162.4845237149</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19757,7 +19695,7 @@
         <v>743017.6366237148</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19790,7 +19728,7 @@
         <v>732317.5595237148</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19823,7 +19761,7 @@
         <v>747051.1633237149</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19856,7 +19794,7 @@
         <v>767947.9303237149</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19889,7 +19827,7 @@
         <v>797598.9060237148</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19922,7 +19860,7 @@
         <v>701003.1161237148</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19933,6 +19871,6 @@
       <c r="M589" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-14 BackTest ZRX.xlsx
@@ -681,9 +681,11 @@
         <v>-36158.9089</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>324</v>
+      </c>
       <c r="J8" t="n">
         <v>320</v>
       </c>
@@ -720,10 +722,14 @@
         <v>-36009.6397</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>324</v>
+      </c>
+      <c r="J9" t="n">
+        <v>324</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -753,11 +759,19 @@
         <v>-35012.1397</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>325</v>
+      </c>
+      <c r="J10" t="n">
+        <v>324</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,11 +800,19 @@
         <v>-35731.2948</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>326</v>
+      </c>
+      <c r="J11" t="n">
+        <v>324</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -819,10 +841,14 @@
         <v>-37496.6117</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>325</v>
+      </c>
+      <c r="J12" t="n">
+        <v>325</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -852,11 +878,19 @@
         <v>-36554.8353</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>324</v>
+      </c>
+      <c r="J13" t="n">
+        <v>325</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -888,8 +922,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>325</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -1809,7 +1849,7 @@
         <v>78796.84417878788</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1842,7 +1882,7 @@
         <v>108000.8270218078</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1875,7 +1915,7 @@
         <v>107257.4217218078</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1908,7 +1948,7 @@
         <v>107257.4217218078</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1941,7 +1981,7 @@
         <v>117244.4141218078</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1974,7 +2014,7 @@
         <v>124655.0343218078</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2007,7 +2047,7 @@
         <v>109984.7864218078</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2040,7 +2080,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2073,7 +2113,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2106,7 +2146,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2139,7 +2179,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2172,7 +2212,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2205,7 +2245,7 @@
         <v>116045.1259218078</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2238,7 +2278,7 @@
         <v>121486.3110218078</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2271,7 +2311,7 @@
         <v>134730.3589218078</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2304,7 +2344,7 @@
         <v>136419.378768005</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2337,7 +2377,7 @@
         <v>136264.427668005</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2370,7 +2410,7 @@
         <v>138434.485768005</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2403,7 +2443,7 @@
         <v>138434.485768005</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2436,7 +2476,7 @@
         <v>162478.0402268285</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2469,7 +2509,7 @@
         <v>181821.6871268285</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2502,7 +2542,7 @@
         <v>188786.846068005</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2535,7 +2575,7 @@
         <v>210428.663468005</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2568,7 +2608,7 @@
         <v>210622.006768005</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2601,7 +2641,7 @@
         <v>189326.563368005</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2634,7 +2674,7 @@
         <v>205877.086768005</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2667,7 +2707,7 @@
         <v>195498.335868005</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2700,7 +2740,7 @@
         <v>202498.563968005</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2733,7 +2773,7 @@
         <v>188226.874668005</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2766,7 +2806,7 @@
         <v>199223.282168005</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -5670,7 +5710,7 @@
         <v>145286.7667870786</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5703,7 +5743,7 @@
         <v>145286.7667870786</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5736,7 +5776,7 @@
         <v>143704.0481870786</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5769,7 +5809,7 @@
         <v>143704.0481870786</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -7485,7 +7525,7 @@
         <v>129213.3791018999</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -10950,7 +10990,7 @@
         <v>155271.5747001986</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -13458,7 +13498,7 @@
         <v>217818.1943655166</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13491,7 +13531,7 @@
         <v>211010.1644655166</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13590,7 +13630,7 @@
         <v>272418.0813819055</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13623,7 +13663,7 @@
         <v>272418.0813819055</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14085,7 +14125,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14118,7 +14158,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14151,7 +14191,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14316,7 +14356,7 @@
         <v>278424.9779819055</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14349,7 +14389,7 @@
         <v>278427.9779819055</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14382,7 +14422,7 @@
         <v>275828.2856819055</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14415,7 +14455,7 @@
         <v>274952.3694819055</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14448,7 +14488,7 @@
         <v>274952.3694819055</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14481,7 +14521,7 @@
         <v>275121.2870819055</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -17055,7 +17095,7 @@
         <v>656988.6376069703</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17088,7 +17128,7 @@
         <v>662063.3346069703</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17154,7 +17194,7 @@
         <v>589570.3078069703</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19101,7 +19141,7 @@
         <v>678692.4371964422</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19398,7 +19438,7 @@
         <v>602458.7517237148</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19431,7 +19471,7 @@
         <v>602458.7517237148</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19464,7 +19504,7 @@
         <v>697168.3155237148</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19497,7 +19537,7 @@
         <v>697168.3155237148</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19530,7 +19570,7 @@
         <v>702497.5674237148</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19563,7 +19603,7 @@
         <v>764322.7703237148</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19596,7 +19636,7 @@
         <v>738307.4467237148</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19629,7 +19669,7 @@
         <v>752252.0765237148</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19662,7 +19702,7 @@
         <v>779162.4845237149</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19695,7 +19735,7 @@
         <v>743017.6366237148</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19728,7 +19768,7 @@
         <v>732317.5595237148</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19761,7 +19801,7 @@
         <v>747051.1633237149</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19794,7 +19834,7 @@
         <v>767947.9303237149</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19827,7 +19867,7 @@
         <v>797598.9060237148</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19860,7 +19900,7 @@
         <v>701003.1161237148</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
